--- a/badbaby/static/badbaby.xlsx
+++ b/badbaby/static/badbaby.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ss Coding" sheetId="1" state="visible" r:id="rId2"/>
@@ -5005,7 +5005,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
-      <selection pane="bottomRight" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="C85" activeCellId="0" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13558,12 +13558,12 @@
   </sheetPr>
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="N97" activeCellId="0" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="74" t="n">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="O97" s="74" t="s">
         <v>35</v>
@@ -26471,7 +26471,7 @@
   </sheetPr>
   <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>

--- a/badbaby/static/badbaby.xlsx
+++ b/badbaby/static/badbaby.xlsx
@@ -18,7 +18,7 @@
     <sheet name="simms_demographics" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">mmn!$A$1:$Q$117</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">mmn!$A$1:$R$117</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="347">
   <si>
     <t xml:space="preserve">2 months-old</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t xml:space="preserve">simms_inclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC Report</t>
   </si>
   <si>
     <t xml:space="preserve">SES</t>
@@ -1812,13 +1815,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="24.34"/>
   </cols>
   <sheetData>
@@ -2973,7 +2976,7 @@
     <row r="31" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="str">
         <f aca="false">" N = "&amp;COUNTA(A2:A30)</f>
-        <v> N = 29</v>
+        <v>N = 29</v>
       </c>
       <c r="B31" s="29" t="str">
         <f aca="false">COUNTIF(B2:B30,"M")&amp;" Males; "&amp;COUNTIF(B2:B30,"F")&amp;" Females"</f>
@@ -4174,7 +4177,7 @@
     <row r="63" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="str">
         <f aca="false">" N = "&amp;COUNTA(A32:A62)</f>
-        <v> N = 31</v>
+        <v>N = 31</v>
       </c>
       <c r="B63" s="29" t="str">
         <f aca="false">COUNTIF(B32:B62,"M")&amp;" Males; "&amp;COUNTIF(B32:B62,"F")&amp;" Females"</f>
@@ -5012,13 +5015,13 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="49" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="24.34"/>
   </cols>
@@ -7321,7 +7324,7 @@
     <row r="54" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="28" t="str">
         <f aca="false">" N = "&amp;COUNTA(A2:A53)</f>
-        <v> N = 52</v>
+        <v>N = 52</v>
       </c>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -7347,23 +7350,23 @@
       </c>
       <c r="I54" s="9" t="str">
         <f aca="false">" N = "&amp;SUM(I2:I53)</f>
-        <v> N = 48</v>
+        <v>N = 48</v>
       </c>
       <c r="J54" s="9" t="str">
         <f aca="false">" N = "&amp;SUM(J2:J53)</f>
-        <v> N = 50</v>
+        <v>N = 50</v>
       </c>
       <c r="K54" s="9" t="str">
         <f aca="false">" N = "&amp;SUM(K2:K53)</f>
-        <v> N = 41</v>
+        <v>N = 41</v>
       </c>
       <c r="L54" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(L2:L53,"3")</f>
-        <v> N = 37</v>
+        <v>N = 37</v>
       </c>
       <c r="M54" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(M2:M53,"TRUE")</f>
-        <v> N = 27</v>
+        <v>N = 27</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9129,7 +9132,7 @@
     <row r="95" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="28" t="str">
         <f aca="false">" N = "&amp;COUNTA(A55:A94)</f>
-        <v> N = 40</v>
+        <v>N = 40</v>
       </c>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
@@ -9151,27 +9154,27 @@
       </c>
       <c r="H95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(H55:H94,"1")</f>
-        <v> N = 33</v>
+        <v>N = 33</v>
       </c>
       <c r="I95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(I55:I94,"1")</f>
-        <v> N = 40</v>
+        <v>N = 40</v>
       </c>
       <c r="J95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(J55:J94,"1")</f>
-        <v> N = 38</v>
+        <v>N = 38</v>
       </c>
       <c r="K95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(K55:K94,"1")</f>
-        <v> N = 33</v>
+        <v>N = 33</v>
       </c>
       <c r="L95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(L55:L94,"3")</f>
-        <v> N = 32</v>
+        <v>N = 32</v>
       </c>
       <c r="M95" s="9" t="str">
         <f aca="false">" N = "&amp;COUNTIF(M55:M94,"TRUE")</f>
-        <v> N = 26</v>
+        <v>N = 26</v>
       </c>
     </row>
     <row r="65536" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13553,34 +13556,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="N97" activeCellId="0" sqref="N97"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M94" activeCellId="0" sqref="M94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="49" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="65" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="54.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="23" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="33" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="39" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="54.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="19" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="24" style="0" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="34" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="40" style="0" width="24.34"/>
   </cols>
   <sheetData>
     <row r="1" s="49" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13620,25 +13624,28 @@
       <c r="L1" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="49" t="s">
         <v>275</v>
       </c>
       <c r="N1" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="Q1" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="R1" s="66"/>
+      <c r="R1" s="66" t="s">
+        <v>278</v>
+      </c>
       <c r="S1" s="66"/>
-    </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T1" s="66"/>
+    </row>
+    <row r="2" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="66" t="s">
         <v>27</v>
       </c>
@@ -13646,10 +13653,10 @@
         <v>42262</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E2" s="72" t="n">
         <f aca="false">IF(mmn!A2=MEG!A2,MEG!E2)</f>
@@ -13678,22 +13685,26 @@
         <v>0</v>
       </c>
       <c r="M2" s="72" t="n">
+        <f aca="false">IF(AND(J2=1,K2=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="72" t="n">
         <v>41</v>
       </c>
-      <c r="N2" s="74" t="n">
+      <c r="O2" s="74" t="n">
         <v>108</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="74" t="n">
+      <c r="Q2" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q2" s="72"/>
       <c r="R2" s="72"/>
       <c r="S2" s="72"/>
-    </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T2" s="72"/>
+    </row>
+    <row r="3" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="66" t="s">
         <v>31</v>
       </c>
@@ -13701,10 +13712,10 @@
         <v>42293</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E3" s="72" t="n">
         <f aca="false">IF(mmn!A3=MEG!A3,MEG!E3)</f>
@@ -13733,22 +13744,26 @@
         <v>0</v>
       </c>
       <c r="M3" s="72" t="n">
+        <f aca="false">IF(AND(J3=1,K3=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="72" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="74" t="n">
+      <c r="O3" s="74" t="n">
         <v>115</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="P3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="74" t="n">
+      <c r="Q3" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q3" s="72"/>
       <c r="R3" s="72"/>
       <c r="S3" s="72"/>
-    </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T3" s="72"/>
+    </row>
+    <row r="4" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="66" t="s">
         <v>34</v>
       </c>
@@ -13756,10 +13771,10 @@
         <v>42276</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E4" s="72" t="n">
         <f aca="false">IF(mmn!A4=MEG!A4,MEG!E4)</f>
@@ -13788,22 +13803,26 @@
         <v>0</v>
       </c>
       <c r="M4" s="72" t="n">
+        <f aca="false">IF(AND(J4=1,K4=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="72" t="n">
         <v>45</v>
       </c>
-      <c r="N4" s="74" t="n">
+      <c r="O4" s="74" t="n">
         <v>112</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="74" t="n">
+      <c r="Q4" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q4" s="72"/>
       <c r="R4" s="72"/>
       <c r="S4" s="72"/>
-    </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T4" s="72"/>
+    </row>
+    <row r="5" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="66" t="s">
         <v>90</v>
       </c>
@@ -13811,10 +13830,10 @@
         <v>42286</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E5" s="72" t="n">
         <f aca="false">IF(mmn!A5=MEG!A5,MEG!E5)</f>
@@ -13843,22 +13862,26 @@
         <v>0</v>
       </c>
       <c r="M5" s="72" t="n">
+        <f aca="false">IF(AND(J5=1,K5=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="72" t="n">
         <v>46.5</v>
       </c>
-      <c r="N5" s="74" t="n">
+      <c r="O5" s="74" t="n">
         <v>119</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="P5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="74" t="n">
+      <c r="Q5" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
       <c r="S5" s="72"/>
-    </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T5" s="72"/>
+    </row>
+    <row r="6" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="66" t="s">
         <v>37</v>
       </c>
@@ -13866,10 +13889,10 @@
         <v>42279</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E6" s="72" t="n">
         <f aca="false">IF(mmn!A6=MEG!A6,MEG!E6)</f>
@@ -13898,22 +13921,26 @@
         <v>0</v>
       </c>
       <c r="M6" s="72" t="n">
+        <f aca="false">IF(AND(J6=1,K6=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="72" t="n">
         <v>43</v>
       </c>
-      <c r="N6" s="74" t="n">
+      <c r="O6" s="74" t="n">
         <v>113</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="P6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="74" t="n">
+      <c r="Q6" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q6" s="72"/>
       <c r="R6" s="72"/>
       <c r="S6" s="72"/>
-    </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T6" s="72"/>
+    </row>
+    <row r="7" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="66" t="s">
         <v>39</v>
       </c>
@@ -13921,10 +13948,10 @@
         <v>42286</v>
       </c>
       <c r="C7" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="73" t="s">
         <v>280</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>279</v>
       </c>
       <c r="E7" s="72" t="n">
         <f aca="false">IF(mmn!A7=MEG!A7,MEG!E7)</f>
@@ -13953,22 +13980,26 @@
         <v>0</v>
       </c>
       <c r="M7" s="72" t="n">
+        <f aca="false">IF(AND(J7=1,K7=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="72" t="n">
         <v>40</v>
       </c>
-      <c r="N7" s="74" t="n">
+      <c r="O7" s="74" t="n">
         <v>120</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="P7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="74" t="n">
+      <c r="Q7" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q7" s="72"/>
       <c r="R7" s="72"/>
       <c r="S7" s="72"/>
-    </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T7" s="72"/>
+    </row>
+    <row r="8" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="66" t="s">
         <v>41</v>
       </c>
@@ -13976,10 +14007,10 @@
         <v>42314</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E8" s="72" t="n">
         <f aca="false">IF(mmn!A8=MEG!A8,MEG!E8)</f>
@@ -14008,22 +14039,26 @@
         <v>0</v>
       </c>
       <c r="M8" s="72" t="n">
+        <f aca="false">IF(AND(J8=1,K8=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="72" t="n">
         <v>21</v>
       </c>
-      <c r="N8" s="74" t="n">
+      <c r="O8" s="74" t="n">
         <v>137</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="P8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="74" t="n">
+      <c r="Q8" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q8" s="72"/>
       <c r="R8" s="72"/>
       <c r="S8" s="72"/>
-    </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T8" s="72"/>
+    </row>
+    <row r="9" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="66" t="s">
         <v>44</v>
       </c>
@@ -14031,10 +14066,10 @@
         <v>42310</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E9" s="72" t="n">
         <f aca="false">IF(mmn!A9=MEG!A9,MEG!E9)</f>
@@ -14063,22 +14098,26 @@
         <v>0</v>
       </c>
       <c r="M9" s="72" t="n">
+        <f aca="false">IF(AND(J9=1,K9=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="72" t="n">
         <v>42.5</v>
       </c>
-      <c r="N9" s="74" t="n">
+      <c r="O9" s="74" t="n">
         <v>146</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="P9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="74" t="n">
+      <c r="Q9" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q9" s="72"/>
       <c r="R9" s="72"/>
       <c r="S9" s="72"/>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T9" s="72"/>
+    </row>
+    <row r="10" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="66" t="s">
         <v>47</v>
       </c>
@@ -14086,10 +14125,10 @@
         <v>42313</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E10" s="72" t="n">
         <f aca="false">IF(mmn!A10=MEG!A10,MEG!E10)</f>
@@ -14118,22 +14157,26 @@
         <v>0</v>
       </c>
       <c r="M10" s="72" t="n">
+        <f aca="false">IF(AND(J10=1,K10=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="72" t="n">
         <v>42.5</v>
       </c>
-      <c r="N10" s="74" t="n">
+      <c r="O10" s="74" t="n">
         <v>126</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="74" t="n">
+      <c r="Q10" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
       <c r="S10" s="72"/>
-    </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T10" s="72"/>
+    </row>
+    <row r="11" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="66" t="s">
         <v>49</v>
       </c>
@@ -14141,10 +14184,10 @@
         <v>42300</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E11" s="72" t="n">
         <f aca="false">IF(mmn!A11=MEG!A11,MEG!E11)</f>
@@ -14173,22 +14216,26 @@
         <v>0</v>
       </c>
       <c r="M11" s="72" t="n">
+        <f aca="false">IF(AND(J11=1,K11=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="72" t="n">
         <v>11</v>
       </c>
-      <c r="N11" s="74" t="n">
+      <c r="O11" s="74" t="n">
         <v>116</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="P11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="74" t="n">
+      <c r="Q11" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
       <c r="S11" s="72"/>
-    </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T11" s="72"/>
+    </row>
+    <row r="12" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="66" t="s">
         <v>51</v>
       </c>
@@ -14196,10 +14243,10 @@
         <v>42304</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E12" s="72" t="n">
         <f aca="false">IF(mmn!A12=MEG!A12,MEG!E12)</f>
@@ -14228,24 +14275,28 @@
         <v>0</v>
       </c>
       <c r="M12" s="72" t="n">
+        <f aca="false">IF(AND(J12=1,K12=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="72" t="n">
         <v>40</v>
       </c>
-      <c r="N12" s="74" t="n">
+      <c r="O12" s="74" t="n">
         <v>124</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="P12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="74" t="n">
+      <c r="Q12" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q12" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="R12" s="72"/>
+      <c r="R12" s="72" t="s">
+        <v>286</v>
+      </c>
       <c r="S12" s="72"/>
-    </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T12" s="72"/>
+    </row>
+    <row r="13" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="66" t="s">
         <v>54</v>
       </c>
@@ -14253,10 +14304,10 @@
         <v>42320</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E13" s="72" t="n">
         <f aca="false">IF(mmn!A13=MEG!A13,MEG!E13)</f>
@@ -14285,22 +14336,26 @@
         <v>0</v>
       </c>
       <c r="M13" s="72" t="n">
+        <f aca="false">IF(AND(J13=1,K13=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="72" t="n">
         <v>22</v>
       </c>
-      <c r="N13" s="74" t="n">
+      <c r="O13" s="74" t="n">
         <v>142</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="P13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="74" t="n">
+      <c r="Q13" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
       <c r="S13" s="72"/>
-    </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T13" s="72"/>
+    </row>
+    <row r="14" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="66" t="s">
         <v>56</v>
       </c>
@@ -14308,10 +14363,10 @@
         <v>42320</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E14" s="72" t="n">
         <f aca="false">IF(mmn!A14=MEG!A14,MEG!E14)</f>
@@ -14340,20 +14395,24 @@
         <v>0</v>
       </c>
       <c r="M14" s="72" t="n">
+        <f aca="false">IF(AND(J14=1,K14=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="72" t="n">
         <v>40.5</v>
       </c>
-      <c r="N14" s="74" t="n">
+      <c r="O14" s="74" t="n">
         <v>135</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="P14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="74" t="n">
+      <c r="Q14" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
       <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="66" t="s">
@@ -14363,10 +14422,10 @@
         <v>42321</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D15" s="73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E15" s="72" t="n">
         <f aca="false">IF(mmn!A15=MEG!A15,MEG!E15)</f>
@@ -14396,22 +14455,25 @@
         <v>1</v>
       </c>
       <c r="M15" s="72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="72" t="n">
         <v>41.5</v>
       </c>
-      <c r="N15" s="74" t="n">
+      <c r="O15" s="74" t="n">
         <v>65</v>
       </c>
-      <c r="O15" s="74" t="s">
+      <c r="P15" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="74" t="n">
+      <c r="Q15" s="74" t="n">
         <v>37</v>
       </c>
-      <c r="Q15" s="72"/>
       <c r="R15" s="72"/>
       <c r="S15" s="72"/>
-    </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T15" s="72"/>
+    </row>
+    <row r="16" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="66" t="s">
         <v>171</v>
       </c>
@@ -14419,10 +14481,10 @@
         <v>42462</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D16" s="73" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E16" s="72" t="n">
         <f aca="false">IF(mmn!A16=MEG!A16,MEG!E16)</f>
@@ -14452,20 +14514,24 @@
         <v>1</v>
       </c>
       <c r="M16" s="72" t="n">
+        <f aca="false">IF(AND(J16=1,K16=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="72" t="n">
         <v>41.5</v>
       </c>
-      <c r="N16" s="74" t="n">
+      <c r="O16" s="74" t="n">
         <v>206</v>
       </c>
-      <c r="O16" s="74" t="s">
+      <c r="P16" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="74" t="n">
+      <c r="Q16" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q16" s="72"/>
       <c r="R16" s="72"/>
       <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="66" t="s">
@@ -14475,10 +14541,10 @@
         <v>42326</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D17" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E17" s="72" t="n">
         <f aca="false">IF(mmn!A17=MEG!A17,MEG!E17)</f>
@@ -14507,22 +14573,26 @@
         <v>0</v>
       </c>
       <c r="M17" s="72" t="n">
+        <f aca="false">IF(AND(J17=1,K17=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="72" t="n">
         <v>30</v>
       </c>
-      <c r="N17" s="74" t="n">
+      <c r="O17" s="74" t="n">
         <v>64</v>
       </c>
-      <c r="O17" s="74" t="s">
+      <c r="P17" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="74" t="n">
+      <c r="Q17" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q17" s="72"/>
       <c r="R17" s="72"/>
       <c r="S17" s="72"/>
-    </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T17" s="72"/>
+    </row>
+    <row r="18" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="66" t="s">
         <v>173</v>
       </c>
@@ -14530,10 +14600,10 @@
         <v>42452</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E18" s="72" t="n">
         <f aca="false">IF(mmn!A18=MEG!A18,MEG!E18)</f>
@@ -14563,24 +14633,28 @@
         <v>0</v>
       </c>
       <c r="M18" s="72" t="n">
+        <f aca="false">IF(AND(J18=1,K18=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="72" t="n">
         <v>30</v>
       </c>
-      <c r="N18" s="74" t="n">
+      <c r="O18" s="74" t="n">
         <v>194</v>
       </c>
-      <c r="O18" s="74" t="s">
+      <c r="P18" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="74" t="n">
+      <c r="Q18" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q18" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="R18" s="72"/>
+      <c r="R18" s="72" t="s">
+        <v>286</v>
+      </c>
       <c r="S18" s="72"/>
-    </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T18" s="72"/>
+    </row>
+    <row r="19" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="66" t="s">
         <v>63</v>
       </c>
@@ -14588,10 +14662,10 @@
         <v>42309</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E19" s="72" t="n">
         <f aca="false">IF(mmn!A19=MEG!A19,MEG!E19)</f>
@@ -14620,20 +14694,24 @@
         <v>0</v>
       </c>
       <c r="M19" s="72" t="n">
+        <f aca="false">IF(AND(J19=1,K19=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="72" t="n">
         <v>35</v>
       </c>
-      <c r="N19" s="74" t="n">
+      <c r="O19" s="74" t="n">
         <v>126</v>
       </c>
-      <c r="O19" s="74" t="s">
+      <c r="P19" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="74" t="n">
+      <c r="Q19" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q19" s="72"/>
       <c r="R19" s="72"/>
       <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
     </row>
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="66" t="s">
@@ -14643,10 +14721,10 @@
         <v>42325</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D20" s="73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E20" s="72" t="n">
         <f aca="false">IF(mmn!A20=MEG!A20,MEG!E20)</f>
@@ -14676,22 +14754,26 @@
         <v>1</v>
       </c>
       <c r="M20" s="72" t="n">
+        <f aca="false">IF(AND(J20=1,K20=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="72" t="n">
         <v>63</v>
       </c>
-      <c r="N20" s="74" t="n">
+      <c r="O20" s="74" t="n">
         <v>67</v>
       </c>
-      <c r="O20" s="74" t="s">
+      <c r="P20" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="74" t="n">
+      <c r="Q20" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q20" s="72"/>
       <c r="R20" s="72"/>
       <c r="S20" s="72"/>
-    </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T20" s="72"/>
+    </row>
+    <row r="21" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="66" t="s">
         <v>175</v>
       </c>
@@ -14699,10 +14781,10 @@
         <v>42466</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E21" s="72" t="n">
         <f aca="false">IF(mmn!A21=MEG!A21,MEG!E21)</f>
@@ -14732,22 +14814,26 @@
         <v>1</v>
       </c>
       <c r="M21" s="72" t="n">
+        <f aca="false">IF(AND(J21=1,K21=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="72" t="n">
         <v>63</v>
       </c>
-      <c r="N21" s="74" t="n">
+      <c r="O21" s="74" t="n">
         <v>208</v>
       </c>
-      <c r="O21" s="74" t="s">
+      <c r="P21" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="74" t="n">
+      <c r="Q21" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q21" s="72"/>
       <c r="R21" s="72"/>
       <c r="S21" s="72"/>
-    </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T21" s="72"/>
+    </row>
+    <row r="22" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="66" t="s">
         <v>65</v>
       </c>
@@ -14755,10 +14841,10 @@
         <v>42332</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E22" s="72" t="n">
         <f aca="false">IF(mmn!A22=MEG!A22,MEG!E22)</f>
@@ -14788,22 +14874,26 @@
         <v>0</v>
       </c>
       <c r="M22" s="72" t="n">
+        <f aca="false">IF(AND(J22=1,K22=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="72" t="n">
         <v>35</v>
       </c>
-      <c r="N22" s="74" t="n">
+      <c r="O22" s="74" t="n">
         <v>70</v>
       </c>
-      <c r="O22" s="74" t="s">
+      <c r="P22" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="74" t="n">
+      <c r="Q22" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q22" s="72"/>
       <c r="R22" s="72"/>
       <c r="S22" s="72"/>
-    </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T22" s="72"/>
+    </row>
+    <row r="23" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="66" t="s">
         <v>177</v>
       </c>
@@ -14811,10 +14901,10 @@
         <v>42451</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E23" s="72" t="n">
         <f aca="false">IF(mmn!A23=MEG!A23,MEG!E23)</f>
@@ -14843,20 +14933,24 @@
         <v>0</v>
       </c>
       <c r="M23" s="72" t="n">
+        <f aca="false">IF(AND(J23=1,K23=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="72" t="n">
         <v>35</v>
       </c>
-      <c r="N23" s="74" t="n">
+      <c r="O23" s="74" t="n">
         <v>189</v>
       </c>
-      <c r="O23" s="74" t="s">
+      <c r="P23" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="74" t="n">
+      <c r="Q23" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q23" s="72"/>
       <c r="R23" s="72"/>
       <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="66" t="s">
@@ -14866,10 +14960,10 @@
         <v>42339</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E24" s="72" t="n">
         <f aca="false">IF(mmn!A24=MEG!A24,MEG!E24)</f>
@@ -14899,22 +14993,26 @@
         <v>1</v>
       </c>
       <c r="M24" s="72" t="n">
+        <f aca="false">IF(AND(J24=1,K24=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="72" t="n">
         <v>43</v>
       </c>
-      <c r="N24" s="74" t="n">
+      <c r="O24" s="74" t="n">
         <v>60</v>
       </c>
-      <c r="O24" s="74" t="s">
+      <c r="P24" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="74" t="n">
+      <c r="Q24" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q24" s="72"/>
       <c r="R24" s="72"/>
       <c r="S24" s="72"/>
-    </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T24" s="72"/>
+    </row>
+    <row r="25" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="66" t="s">
         <v>179</v>
       </c>
@@ -14922,10 +15020,10 @@
         <v>42464</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E25" s="72" t="n">
         <f aca="false">IF(mmn!A25=MEG!A25,MEG!E25)</f>
@@ -14955,20 +15053,24 @@
         <v>1</v>
       </c>
       <c r="M25" s="72" t="n">
+        <f aca="false">IF(AND(J25=1,K25=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="72" t="n">
         <v>43</v>
       </c>
-      <c r="N25" s="74" t="n">
+      <c r="O25" s="74" t="n">
         <v>185</v>
       </c>
-      <c r="O25" s="74" t="s">
+      <c r="P25" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="74" t="n">
+      <c r="Q25" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q25" s="72"/>
       <c r="R25" s="72"/>
       <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="66" t="s">
@@ -14978,10 +15080,10 @@
         <v>42342</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E26" s="72" t="n">
         <f aca="false">IF(mmn!A26=MEG!A26,MEG!E26)</f>
@@ -15010,20 +15112,24 @@
         <v>0</v>
       </c>
       <c r="M26" s="72" t="n">
+        <f aca="false">IF(AND(J26=1,K26=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="72" t="n">
         <v>55.5</v>
       </c>
-      <c r="N26" s="74" t="n">
+      <c r="O26" s="74" t="n">
         <v>63</v>
       </c>
-      <c r="O26" s="74" t="s">
+      <c r="P26" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P26" s="74" t="n">
+      <c r="Q26" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q26" s="72"/>
       <c r="R26" s="72"/>
       <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="66" t="s">
@@ -15033,10 +15139,10 @@
         <v>42349</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E27" s="72" t="n">
         <f aca="false">IF(mmn!A27=MEG!A27,MEG!E27)</f>
@@ -15066,22 +15172,25 @@
         <v>1</v>
       </c>
       <c r="M27" s="72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="72" t="n">
         <v>42</v>
       </c>
-      <c r="N27" s="74" t="n">
+      <c r="O27" s="74" t="n">
         <v>75</v>
       </c>
-      <c r="O27" s="74" t="s">
+      <c r="P27" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="74" t="n">
+      <c r="Q27" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q27" s="72"/>
       <c r="R27" s="72"/>
       <c r="S27" s="72"/>
-    </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T27" s="72"/>
+    </row>
+    <row r="28" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="66" t="s">
         <v>181</v>
       </c>
@@ -15089,10 +15198,10 @@
         <v>42464</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D28" s="73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E28" s="72" t="n">
         <f aca="false">IF(mmn!A28=MEG!A28,MEG!E28)</f>
@@ -15122,20 +15231,24 @@
         <v>1</v>
       </c>
       <c r="M28" s="72" t="n">
+        <f aca="false">IF(AND(J28=1,K28=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="72" t="n">
         <v>42</v>
       </c>
-      <c r="N28" s="74" t="n">
+      <c r="O28" s="74" t="n">
         <v>190</v>
       </c>
-      <c r="O28" s="74" t="s">
+      <c r="P28" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="74" t="n">
+      <c r="Q28" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q28" s="72"/>
       <c r="R28" s="72"/>
       <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="66" t="s">
@@ -15145,10 +15258,10 @@
         <v>42374</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D29" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E29" s="72" t="n">
         <f aca="false">IF(mmn!A29=MEG!A29,MEG!E29)</f>
@@ -15177,22 +15290,25 @@
         <v>0</v>
       </c>
       <c r="M29" s="72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="72" t="n">
         <v>43</v>
       </c>
-      <c r="N29" s="74" t="n">
+      <c r="O29" s="74" t="n">
         <v>62</v>
       </c>
-      <c r="O29" s="74" t="s">
+      <c r="P29" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="74" t="n">
+      <c r="Q29" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q29" s="72"/>
       <c r="R29" s="72"/>
       <c r="S29" s="72"/>
-    </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T29" s="72"/>
+    </row>
+    <row r="30" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="66" t="s">
         <v>74</v>
       </c>
@@ -15200,10 +15316,10 @@
         <v>42383</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D30" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E30" s="72" t="n">
         <f aca="false">IF(mmn!A30=MEG!A30,MEG!E30)</f>
@@ -15233,22 +15349,26 @@
         <v>0</v>
       </c>
       <c r="M30" s="72" t="n">
+        <f aca="false">IF(AND(J30=1,K30=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="72" t="n">
         <v>42</v>
       </c>
-      <c r="N30" s="74" t="n">
+      <c r="O30" s="74" t="n">
         <v>60</v>
       </c>
-      <c r="O30" s="74" t="s">
+      <c r="P30" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P30" s="74" t="n">
+      <c r="Q30" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q30" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="R30" s="72"/>
+      <c r="R30" s="72" t="s">
+        <v>286</v>
+      </c>
       <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="66" t="s">
@@ -15258,10 +15378,10 @@
         <v>42394</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D31" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E31" s="72" t="n">
         <f aca="false">IF(mmn!A31=MEG!A31,MEG!E31)</f>
@@ -15291,22 +15411,25 @@
         <v>1</v>
       </c>
       <c r="M31" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="72" t="n">
         <v>35</v>
       </c>
-      <c r="N31" s="74" t="n">
+      <c r="O31" s="74" t="n">
         <v>57</v>
       </c>
-      <c r="O31" s="74" t="s">
+      <c r="P31" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="74" t="n">
+      <c r="Q31" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q31" s="72"/>
       <c r="R31" s="72"/>
       <c r="S31" s="72"/>
-    </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T31" s="72"/>
+    </row>
+    <row r="32" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="66" t="s">
         <v>183</v>
       </c>
@@ -15314,10 +15437,10 @@
         <v>42528</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E32" s="72" t="n">
         <f aca="false">IF(mmn!A32=MEG!A32,MEG!E32)</f>
@@ -15347,20 +15470,24 @@
         <v>1</v>
       </c>
       <c r="M32" s="72" t="n">
+        <f aca="false">IF(AND(J32=1,K32=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="72" t="n">
         <v>35</v>
       </c>
-      <c r="N32" s="74" t="n">
+      <c r="O32" s="74" t="n">
         <v>191</v>
       </c>
-      <c r="O32" s="74" t="s">
+      <c r="P32" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P32" s="74" t="n">
+      <c r="Q32" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q32" s="72"/>
       <c r="R32" s="72"/>
       <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
     </row>
     <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="66" t="s">
@@ -15370,10 +15497,10 @@
         <v>42395</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D33" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E33" s="72" t="n">
         <f aca="false">IF(mmn!A33=MEG!A33,MEG!E33)</f>
@@ -15403,22 +15530,26 @@
         <v>1</v>
       </c>
       <c r="M33" s="72" t="n">
+        <f aca="false">IF(AND(J33=1,K33=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N33" s="72" t="n">
         <v>22</v>
       </c>
-      <c r="N33" s="74" t="n">
+      <c r="O33" s="74" t="n">
         <v>54</v>
       </c>
-      <c r="O33" s="74" t="s">
+      <c r="P33" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="74" t="n">
+      <c r="Q33" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q33" s="72"/>
       <c r="R33" s="72"/>
       <c r="S33" s="72"/>
-    </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T33" s="72"/>
+    </row>
+    <row r="34" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="66" t="s">
         <v>185</v>
       </c>
@@ -15426,10 +15557,10 @@
         <v>42534</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D34" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E34" s="72" t="n">
         <f aca="false">IF(mmn!A34=MEG!A34,MEG!E34)</f>
@@ -15459,22 +15590,26 @@
         <v>1</v>
       </c>
       <c r="M34" s="72" t="n">
+        <f aca="false">IF(AND(J34=1,K34=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="72" t="n">
         <v>22</v>
       </c>
-      <c r="N34" s="74" t="n">
+      <c r="O34" s="74" t="n">
         <v>193</v>
       </c>
-      <c r="O34" s="74" t="s">
+      <c r="P34" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="74" t="n">
+      <c r="Q34" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q34" s="72"/>
       <c r="R34" s="72"/>
       <c r="S34" s="72"/>
-    </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T34" s="72"/>
+    </row>
+    <row r="35" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="66" t="s">
         <v>79</v>
       </c>
@@ -15482,10 +15617,10 @@
         <v>42398</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D35" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E35" s="72" t="n">
         <f aca="false">IF(mmn!A35=MEG!A35,MEG!E35)</f>
@@ -15515,22 +15650,26 @@
         <v>0</v>
       </c>
       <c r="M35" s="72" t="n">
+        <f aca="false">IF(AND(J35=1,K35=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="72" t="n">
         <v>40.5</v>
       </c>
-      <c r="N35" s="74" t="n">
+      <c r="O35" s="74" t="n">
         <v>57</v>
       </c>
-      <c r="O35" s="74" t="s">
+      <c r="P35" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P35" s="74" t="n">
+      <c r="Q35" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q35" s="72"/>
       <c r="R35" s="72"/>
       <c r="S35" s="72"/>
-    </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T35" s="72"/>
+    </row>
+    <row r="36" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="66" t="s">
         <v>187</v>
       </c>
@@ -15538,10 +15677,10 @@
         <v>42535</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D36" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E36" s="72" t="n">
         <f aca="false">IF(mmn!A36=MEG!A36,MEG!E36)</f>
@@ -15571,20 +15710,24 @@
         <v>0</v>
       </c>
       <c r="M36" s="72" t="n">
+        <f aca="false">IF(AND(J36=1,K36=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="72" t="n">
         <v>40.5</v>
       </c>
-      <c r="N36" s="74" t="n">
+      <c r="O36" s="74" t="n">
         <v>194</v>
       </c>
-      <c r="O36" s="74" t="s">
+      <c r="P36" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="74" t="n">
+      <c r="Q36" s="74" t="n">
         <v>46</v>
       </c>
-      <c r="Q36" s="72"/>
       <c r="R36" s="72"/>
       <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="66" t="s">
@@ -15594,10 +15737,10 @@
         <v>42410</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D37" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E37" s="72" t="n">
         <f aca="false">IF(mmn!A37=MEG!A37,MEG!E37)</f>
@@ -15626,22 +15769,26 @@
         <v>0</v>
       </c>
       <c r="M37" s="72" t="n">
+        <f aca="false">IF(AND(J37=1,K37=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="72" t="n">
         <v>41</v>
       </c>
-      <c r="N37" s="74" t="n">
+      <c r="O37" s="74" t="n">
         <v>53</v>
       </c>
-      <c r="O37" s="74" t="s">
+      <c r="P37" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P37" s="74" t="n">
+      <c r="Q37" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q37" s="72"/>
       <c r="R37" s="72"/>
       <c r="S37" s="72"/>
-    </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T37" s="72"/>
+    </row>
+    <row r="38" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="66" t="s">
         <v>188</v>
       </c>
@@ -15649,10 +15796,10 @@
         <v>42558</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D38" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E38" s="72" t="n">
         <f aca="false">IF(mmn!A38=MEG!A38,MEG!E38)</f>
@@ -15682,22 +15829,26 @@
         <v>0</v>
       </c>
       <c r="M38" s="72" t="n">
+        <f aca="false">IF(AND(J38=1,K38=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="72" t="n">
         <v>41</v>
       </c>
-      <c r="N38" s="74" t="n">
+      <c r="O38" s="74" t="n">
         <v>201</v>
       </c>
-      <c r="O38" s="74" t="s">
+      <c r="P38" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P38" s="74" t="n">
+      <c r="Q38" s="74" t="n">
         <v>49</v>
       </c>
-      <c r="Q38" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="R38" s="75"/>
+      <c r="R38" s="75" t="s">
+        <v>300</v>
+      </c>
       <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="66" t="s">
@@ -15707,10 +15858,10 @@
         <v>42426</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D39" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E39" s="72" t="n">
         <f aca="false">IF(mmn!A39=MEG!A39,MEG!E39)</f>
@@ -15740,22 +15891,26 @@
         <v>1</v>
       </c>
       <c r="M39" s="72" t="n">
+        <f aca="false">IF(AND(J39=1,K39=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="72" t="n">
         <v>36.5</v>
       </c>
-      <c r="N39" s="74" t="n">
+      <c r="O39" s="74" t="n">
         <v>54</v>
       </c>
-      <c r="O39" s="74" t="s">
+      <c r="P39" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P39" s="74" t="n">
+      <c r="Q39" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q39" s="72"/>
       <c r="R39" s="72"/>
       <c r="S39" s="72"/>
-    </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T39" s="72"/>
+    </row>
+    <row r="40" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="66" t="s">
         <v>190</v>
       </c>
@@ -15763,10 +15918,10 @@
         <v>42550</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D40" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E40" s="72" t="n">
         <f aca="false">IF(mmn!A40=MEG!A40,MEG!E40)</f>
@@ -15796,22 +15951,26 @@
         <v>1</v>
       </c>
       <c r="M40" s="72" t="n">
+        <f aca="false">IF(AND(J40=1,K40=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="72" t="n">
         <v>36.5</v>
       </c>
-      <c r="N40" s="74" t="n">
+      <c r="O40" s="74" t="n">
         <v>188</v>
       </c>
-      <c r="O40" s="74" t="s">
+      <c r="P40" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P40" s="74" t="n">
+      <c r="Q40" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q40" s="72"/>
       <c r="R40" s="72"/>
       <c r="S40" s="72"/>
-    </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T40" s="72"/>
+    </row>
+    <row r="41" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="66" t="s">
         <v>84</v>
       </c>
@@ -15819,10 +15978,10 @@
         <v>42467</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D41" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E41" s="72" t="n">
         <f aca="false">IF(mmn!A41=MEG!A41,MEG!E41)</f>
@@ -15852,22 +16011,26 @@
         <v>0</v>
       </c>
       <c r="M41" s="72" t="n">
+        <f aca="false">IF(AND(J41=1,K41=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="72" t="n">
         <v>40</v>
       </c>
-      <c r="N41" s="74" t="n">
+      <c r="O41" s="74" t="n">
         <v>62</v>
       </c>
-      <c r="O41" s="74" t="s">
+      <c r="P41" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P41" s="74" t="n">
+      <c r="Q41" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q41" s="72"/>
       <c r="R41" s="72"/>
       <c r="S41" s="72"/>
-    </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T41" s="72"/>
+    </row>
+    <row r="42" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="66" t="s">
         <v>85</v>
       </c>
@@ -15875,10 +16038,10 @@
         <v>42467</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D42" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E42" s="72" t="n">
         <f aca="false">IF(mmn!A42=MEG!A42,MEG!E42)</f>
@@ -15908,22 +16071,26 @@
         <v>0</v>
       </c>
       <c r="M42" s="72" t="n">
+        <f aca="false">IF(AND(J42=1,K42=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="72" t="n">
         <v>32</v>
       </c>
-      <c r="N42" s="74" t="n">
+      <c r="O42" s="74" t="n">
         <v>62</v>
       </c>
-      <c r="O42" s="74" t="s">
+      <c r="P42" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P42" s="74" t="n">
+      <c r="Q42" s="74" t="n">
         <v>39.5</v>
       </c>
-      <c r="Q42" s="72"/>
       <c r="R42" s="72"/>
       <c r="S42" s="72"/>
-    </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T42" s="72"/>
+    </row>
+    <row r="43" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="66" t="s">
         <v>192</v>
       </c>
@@ -15931,10 +16098,10 @@
         <v>42598</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D43" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E43" s="72" t="n">
         <f aca="false">IF(mmn!A43=MEG!A43,MEG!E43)</f>
@@ -15964,22 +16131,26 @@
         <v>0</v>
       </c>
       <c r="M43" s="72" t="n">
+        <f aca="false">IF(AND(J43=1,K43=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="72" t="n">
         <v>32</v>
       </c>
-      <c r="N43" s="74" t="n">
+      <c r="O43" s="74" t="n">
         <v>197</v>
       </c>
-      <c r="O43" s="74" t="s">
+      <c r="P43" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P43" s="74" t="n">
+      <c r="Q43" s="74" t="n">
         <v>46</v>
       </c>
-      <c r="Q43" s="72"/>
       <c r="R43" s="72"/>
       <c r="S43" s="72"/>
-    </row>
-    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T43" s="72"/>
+    </row>
+    <row r="44" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="66" t="s">
         <v>87</v>
       </c>
@@ -15987,10 +16158,10 @@
         <v>42475</v>
       </c>
       <c r="C44" s="72" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D44" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E44" s="72" t="n">
         <f aca="false">IF(mmn!A44=MEG!A44,MEG!E44)</f>
@@ -16020,22 +16191,26 @@
         <v>0</v>
       </c>
       <c r="M44" s="72" t="n">
+        <f aca="false">IF(AND(J44=1,K44=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="72" t="n">
         <v>21</v>
       </c>
-      <c r="N44" s="74" t="n">
+      <c r="O44" s="74" t="n">
         <v>57</v>
       </c>
-      <c r="O44" s="74" t="s">
+      <c r="P44" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="74" t="n">
+      <c r="Q44" s="74" t="n">
         <v>38</v>
       </c>
-      <c r="Q44" s="72"/>
       <c r="R44" s="72"/>
       <c r="S44" s="72"/>
-    </row>
-    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T44" s="72"/>
+    </row>
+    <row r="45" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="66" t="s">
         <v>194</v>
       </c>
@@ -16043,10 +16218,10 @@
         <v>42604</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D45" s="73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E45" s="72" t="n">
         <f aca="false">IF(mmn!A45=MEG!A45,MEG!E45)</f>
@@ -16076,22 +16251,26 @@
         <v>0</v>
       </c>
       <c r="M45" s="72" t="n">
+        <f aca="false">IF(AND(J45=1,K45=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="72" t="n">
         <v>21</v>
       </c>
-      <c r="N45" s="74" t="n">
+      <c r="O45" s="74" t="n">
         <v>186</v>
       </c>
-      <c r="O45" s="74" t="s">
+      <c r="P45" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P45" s="74" t="n">
+      <c r="Q45" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q45" s="72"/>
       <c r="R45" s="72"/>
       <c r="S45" s="72"/>
-    </row>
-    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T45" s="72"/>
+    </row>
+    <row r="46" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="66" t="s">
         <v>96</v>
       </c>
@@ -16099,10 +16278,10 @@
         <v>42263</v>
       </c>
       <c r="C46" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D46" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E46" s="72" t="n">
         <f aca="false">IF(mmn!A46=MEG!A46,MEG!E46)</f>
@@ -16132,24 +16311,28 @@
         <v>0</v>
       </c>
       <c r="M46" s="72" t="n">
+        <f aca="false">IF(AND(J46=1,K46=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="72" t="n">
         <v>57</v>
       </c>
-      <c r="N46" s="74" t="n">
+      <c r="O46" s="74" t="n">
         <v>121</v>
       </c>
-      <c r="O46" s="74" t="s">
+      <c r="P46" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P46" s="74" t="n">
+      <c r="Q46" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q46" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="R46" s="72"/>
+      <c r="R46" s="72" t="s">
+        <v>303</v>
+      </c>
       <c r="S46" s="72"/>
-    </row>
-    <row r="47" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T46" s="72"/>
+    </row>
+    <row r="47" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="66" t="s">
         <v>98</v>
       </c>
@@ -16157,10 +16340,10 @@
         <v>42262</v>
       </c>
       <c r="C47" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D47" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E47" s="72" t="n">
         <f aca="false">IF(mmn!A47=MEG!A47,MEG!E47)</f>
@@ -16189,22 +16372,26 @@
         <v>0</v>
       </c>
       <c r="M47" s="72" t="n">
+        <f aca="false">IF(AND(J47=1,K47=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N47" s="72" t="n">
         <v>56</v>
       </c>
-      <c r="N47" s="74" t="n">
+      <c r="O47" s="74" t="n">
         <v>114</v>
       </c>
-      <c r="O47" s="74" t="s">
+      <c r="P47" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P47" s="74" t="n">
+      <c r="Q47" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q47" s="72"/>
       <c r="R47" s="72"/>
       <c r="S47" s="72"/>
-    </row>
-    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T47" s="72"/>
+    </row>
+    <row r="48" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="66" t="s">
         <v>100</v>
       </c>
@@ -16212,10 +16399,10 @@
         <v>42268</v>
       </c>
       <c r="C48" s="72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D48" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E48" s="72" t="n">
         <f aca="false">IF(mmn!A48=MEG!A48,MEG!E48)</f>
@@ -16244,22 +16431,26 @@
         <v>0</v>
       </c>
       <c r="M48" s="72" t="n">
+        <f aca="false">IF(AND(J48=1,K48=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N48" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N48" s="74" t="n">
+      <c r="O48" s="74" t="n">
         <v>116</v>
       </c>
-      <c r="O48" s="74" t="s">
+      <c r="P48" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P48" s="74" t="n">
+      <c r="Q48" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q48" s="72"/>
       <c r="R48" s="72"/>
       <c r="S48" s="72"/>
-    </row>
-    <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T48" s="72"/>
+    </row>
+    <row r="49" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="66" t="s">
         <v>101</v>
       </c>
@@ -16267,10 +16458,10 @@
         <v>42272</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D49" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E49" s="72" t="n">
         <f aca="false">IF(mmn!A49=MEG!A49,MEG!E49)</f>
@@ -16299,24 +16490,28 @@
         <v>0</v>
       </c>
       <c r="M49" s="72" t="n">
+        <f aca="false">IF(AND(J49=1,K49=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N49" s="74" t="n">
+      <c r="O49" s="74" t="n">
         <v>113</v>
       </c>
-      <c r="O49" s="74" t="s">
+      <c r="P49" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P49" s="74" t="n">
+      <c r="Q49" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q49" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="R49" s="72"/>
+      <c r="R49" s="72" t="s">
+        <v>303</v>
+      </c>
       <c r="S49" s="72"/>
-    </row>
-    <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T49" s="72"/>
+    </row>
+    <row r="50" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="66" t="s">
         <v>102</v>
       </c>
@@ -16324,10 +16519,10 @@
         <v>42275</v>
       </c>
       <c r="C50" s="72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D50" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E50" s="72" t="n">
         <f aca="false">IF(mmn!A50=MEG!A50,MEG!E50)</f>
@@ -16356,20 +16551,24 @@
         <v>0</v>
       </c>
       <c r="M50" s="72" t="n">
+        <f aca="false">IF(AND(J50=1,K50=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N50" s="72" t="n">
         <v>61</v>
       </c>
-      <c r="N50" s="74" t="n">
+      <c r="O50" s="74" t="n">
         <v>120</v>
       </c>
-      <c r="O50" s="74" t="s">
+      <c r="P50" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P50" s="74" t="n">
+      <c r="Q50" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
     </row>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="66" t="s">
@@ -16379,10 +16578,10 @@
         <v>42282</v>
       </c>
       <c r="C51" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D51" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E51" s="72" t="n">
         <f aca="false">IF(mmn!A51=MEG!A51,MEG!E51)</f>
@@ -16411,22 +16610,26 @@
         <v>0</v>
       </c>
       <c r="M51" s="72" t="n">
+        <f aca="false">IF(AND(J51=1,K51=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N51" s="72" t="n">
         <v>64.5</v>
       </c>
-      <c r="N51" s="74" t="n">
+      <c r="O51" s="74" t="n">
         <v>57</v>
       </c>
-      <c r="O51" s="74" t="s">
+      <c r="P51" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P51" s="74" t="n">
+      <c r="Q51" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q51" s="72"/>
       <c r="R51" s="72"/>
       <c r="S51" s="72"/>
-    </row>
-    <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T51" s="72"/>
+    </row>
+    <row r="52" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="66" t="s">
         <v>196</v>
       </c>
@@ -16434,10 +16637,10 @@
         <v>42426</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D52" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E52" s="72" t="n">
         <f aca="false">IF(mmn!A52=MEG!A52,MEG!E52)</f>
@@ -16467,20 +16670,24 @@
         <v>0</v>
       </c>
       <c r="M52" s="72" t="n">
+        <f aca="false">IF(AND(J52=1,K52=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="72" t="n">
         <v>64.5</v>
       </c>
-      <c r="N52" s="74" t="n">
+      <c r="O52" s="74" t="n">
         <v>193</v>
       </c>
-      <c r="O52" s="74" t="s">
+      <c r="P52" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P52" s="74" t="n">
+      <c r="Q52" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q52" s="72"/>
       <c r="R52" s="72"/>
       <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="66" t="s">
@@ -16490,10 +16697,10 @@
         <v>42283</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D53" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E53" s="72" t="n">
         <f aca="false">IF(mmn!A53=MEG!A53,MEG!E53)</f>
@@ -16523,22 +16730,26 @@
         <v>1</v>
       </c>
       <c r="M53" s="72" t="n">
+        <f aca="false">IF(AND(J53=1,K53=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N53" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N53" s="74" t="n">
+      <c r="O53" s="74" t="n">
         <v>54</v>
       </c>
-      <c r="O53" s="74" t="s">
+      <c r="P53" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P53" s="74" t="n">
+      <c r="Q53" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q53" s="72"/>
       <c r="R53" s="72"/>
       <c r="S53" s="72"/>
-    </row>
-    <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T53" s="72"/>
+    </row>
+    <row r="54" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="66" t="s">
         <v>197</v>
       </c>
@@ -16546,10 +16757,10 @@
         <v>42425</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D54" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E54" s="72" t="n">
         <f aca="false">IF(mmn!A54=MEG!A54,MEG!E54)</f>
@@ -16579,20 +16790,24 @@
         <v>1</v>
       </c>
       <c r="M54" s="72" t="n">
+        <f aca="false">IF(AND(J54=1,K54=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N54" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N54" s="74" t="n">
+      <c r="O54" s="74" t="n">
         <v>189</v>
       </c>
-      <c r="O54" s="74" t="s">
+      <c r="P54" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P54" s="74" t="n">
+      <c r="Q54" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="Q54" s="72"/>
       <c r="R54" s="72"/>
       <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="66" t="s">
@@ -16602,10 +16817,10 @@
         <v>42296</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E55" s="72" t="n">
         <f aca="false">IF(mmn!A55=MEG!A55,MEG!E55)</f>
@@ -16635,22 +16850,26 @@
         <v>1</v>
       </c>
       <c r="M55" s="72" t="n">
+        <f aca="false">IF(AND(J55=1,K55=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="72" t="n">
         <v>60.5</v>
       </c>
-      <c r="N55" s="74" t="n">
+      <c r="O55" s="74" t="n">
         <v>63</v>
       </c>
-      <c r="O55" s="74" t="s">
+      <c r="P55" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P55" s="74" t="n">
+      <c r="Q55" s="74" t="n">
         <v>38</v>
       </c>
-      <c r="Q55" s="72"/>
       <c r="R55" s="72"/>
       <c r="S55" s="72"/>
-    </row>
-    <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T55" s="72"/>
+    </row>
+    <row r="56" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="66" t="s">
         <v>198</v>
       </c>
@@ -16658,10 +16877,10 @@
         <v>42422</v>
       </c>
       <c r="C56" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D56" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E56" s="72" t="n">
         <f aca="false">IF(mmn!A56=MEG!A56,MEG!E56)</f>
@@ -16691,22 +16910,26 @@
         <v>1</v>
       </c>
       <c r="M56" s="72" t="n">
+        <f aca="false">IF(AND(J56=1,K56=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="72" t="n">
         <v>60.5</v>
       </c>
-      <c r="N56" s="74" t="n">
+      <c r="O56" s="74" t="n">
         <v>189</v>
       </c>
-      <c r="O56" s="74" t="s">
+      <c r="P56" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P56" s="74" t="n">
+      <c r="Q56" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q56" s="72"/>
       <c r="R56" s="72"/>
       <c r="S56" s="72"/>
-    </row>
-    <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T56" s="72"/>
+    </row>
+    <row r="57" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="66" t="s">
         <v>109</v>
       </c>
@@ -16714,10 +16937,10 @@
         <v>42312</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D57" s="73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E57" s="72" t="n">
         <f aca="false">IF(mmn!A57=MEG!A57,MEG!E57)</f>
@@ -16746,22 +16969,26 @@
         <v>0</v>
       </c>
       <c r="M57" s="72" t="n">
+        <f aca="false">IF(AND(J57=1,K57=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N57" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N57" s="74" t="n">
+      <c r="O57" s="74" t="n">
         <v>147</v>
       </c>
-      <c r="O57" s="74" t="s">
+      <c r="P57" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P57" s="74" t="n">
+      <c r="Q57" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q57" s="72"/>
       <c r="R57" s="72"/>
       <c r="S57" s="72"/>
-    </row>
-    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T57" s="72"/>
+    </row>
+    <row r="58" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="66" t="s">
         <v>111</v>
       </c>
@@ -16769,10 +16996,10 @@
         <v>42331</v>
       </c>
       <c r="C58" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D58" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E58" s="72" t="n">
         <f aca="false">IF(mmn!A58=MEG!A58,MEG!E58)</f>
@@ -16801,22 +17028,26 @@
         <v>0</v>
       </c>
       <c r="M58" s="72" t="n">
+        <f aca="false">IF(AND(J58=1,K58=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N58" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N58" s="74" t="n">
+      <c r="O58" s="74" t="n">
         <v>122</v>
       </c>
-      <c r="O58" s="74" t="s">
+      <c r="P58" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P58" s="74" t="n">
+      <c r="Q58" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q58" s="72"/>
       <c r="R58" s="72"/>
       <c r="S58" s="72"/>
-    </row>
-    <row r="59" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T58" s="72"/>
+    </row>
+    <row r="59" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="66" t="s">
         <v>113</v>
       </c>
@@ -16824,10 +17055,10 @@
         <v>42328</v>
       </c>
       <c r="C59" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D59" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E59" s="72" t="n">
         <f aca="false">IF(mmn!A59=MEG!A59,MEG!E59)</f>
@@ -16856,20 +17087,24 @@
         <v>0</v>
       </c>
       <c r="M59" s="72" t="n">
+        <f aca="false">IF(AND(J59=1,K59=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N59" s="74" t="n">
+      <c r="O59" s="74" t="n">
         <v>125</v>
       </c>
-      <c r="O59" s="74" t="s">
+      <c r="P59" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P59" s="74" t="n">
+      <c r="Q59" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q59" s="72"/>
       <c r="R59" s="72"/>
       <c r="S59" s="72"/>
+      <c r="T59" s="72"/>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="66" t="s">
@@ -16879,10 +17114,10 @@
         <v>42324</v>
       </c>
       <c r="C60" s="72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D60" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E60" s="72" t="n">
         <f aca="false">IF(mmn!A60=MEG!A60,MEG!E60)</f>
@@ -16912,22 +17147,26 @@
         <v>1</v>
       </c>
       <c r="M60" s="72" t="n">
+        <f aca="false">IF(AND(J60=1,K60=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N60" s="72" t="n">
         <v>59.5</v>
       </c>
-      <c r="N60" s="74" t="n">
+      <c r="O60" s="74" t="n">
         <v>60</v>
       </c>
-      <c r="O60" s="74" t="s">
+      <c r="P60" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P60" s="74" t="n">
+      <c r="Q60" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q60" s="72"/>
       <c r="R60" s="72"/>
       <c r="S60" s="72"/>
-    </row>
-    <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T60" s="72"/>
+    </row>
+    <row r="61" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="66" t="s">
         <v>199</v>
       </c>
@@ -16935,10 +17174,10 @@
         <v>42462</v>
       </c>
       <c r="C61" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D61" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E61" s="72" t="n">
         <f aca="false">IF(mmn!A61=MEG!A61,MEG!E61)</f>
@@ -16968,22 +17207,26 @@
         <v>1</v>
       </c>
       <c r="M61" s="72" t="n">
+        <f aca="false">IF(AND(J61=1,K61=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N61" s="72" t="n">
         <v>59.5</v>
       </c>
-      <c r="N61" s="74" t="n">
+      <c r="O61" s="74" t="n">
         <v>198</v>
       </c>
-      <c r="O61" s="74" t="s">
+      <c r="P61" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P61" s="74" t="n">
+      <c r="Q61" s="74" t="n">
         <v>46</v>
       </c>
-      <c r="Q61" s="72"/>
       <c r="R61" s="72"/>
       <c r="S61" s="72"/>
-    </row>
-    <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T61" s="72"/>
+    </row>
+    <row r="62" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="66" t="s">
         <v>116</v>
       </c>
@@ -16991,10 +17234,10 @@
         <v>42328</v>
       </c>
       <c r="C62" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D62" s="73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E62" s="72" t="n">
         <f aca="false">IF(mmn!A62=MEG!A62,MEG!E62)</f>
@@ -17023,20 +17266,24 @@
         <v>0</v>
       </c>
       <c r="M62" s="72" t="n">
+        <f aca="false">IF(AND(J62=1,K62=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N62" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N62" s="74" t="n">
+      <c r="O62" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="O62" s="74" t="s">
+      <c r="P62" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P62" s="74" t="n">
+      <c r="Q62" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q62" s="72"/>
       <c r="R62" s="72"/>
       <c r="S62" s="72"/>
+      <c r="T62" s="72"/>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="66" t="s">
@@ -17046,10 +17293,10 @@
         <v>42340</v>
       </c>
       <c r="C63" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D63" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E63" s="72" t="n">
         <f aca="false">IF(mmn!A63=MEG!A63,MEG!E63)</f>
@@ -17078,20 +17325,24 @@
         <v>0</v>
       </c>
       <c r="M63" s="72" t="n">
+        <f aca="false">IF(AND(J63=1,K63=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N63" s="72" t="n">
         <v>56</v>
       </c>
-      <c r="N63" s="74" t="n">
+      <c r="O63" s="74" t="n">
         <v>55</v>
       </c>
-      <c r="O63" s="74" t="s">
+      <c r="P63" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P63" s="74" t="n">
+      <c r="Q63" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q63" s="72"/>
       <c r="R63" s="72"/>
       <c r="S63" s="72"/>
+      <c r="T63" s="72"/>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="66" t="s">
@@ -17101,10 +17352,10 @@
         <v>42345</v>
       </c>
       <c r="C64" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D64" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E64" s="72" t="n">
         <f aca="false">IF(mmn!A64=MEG!A64,MEG!E64)</f>
@@ -17134,22 +17385,26 @@
         <v>1</v>
       </c>
       <c r="M64" s="72" t="n">
+        <f aca="false">IF(AND(J64=1,K64=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N64" s="72" t="n">
         <v>59.5</v>
       </c>
-      <c r="N64" s="74" t="n">
+      <c r="O64" s="74" t="n">
         <v>64</v>
       </c>
-      <c r="O64" s="74" t="s">
+      <c r="P64" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P64" s="74" t="n">
+      <c r="Q64" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q64" s="72"/>
       <c r="R64" s="72"/>
       <c r="S64" s="72"/>
-    </row>
-    <row r="65" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T64" s="72"/>
+    </row>
+    <row r="65" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="66" t="s">
         <v>201</v>
       </c>
@@ -17157,10 +17412,10 @@
         <v>42480</v>
       </c>
       <c r="C65" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D65" s="73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E65" s="72" t="n">
         <f aca="false">IF(mmn!A65=MEG!A65,MEG!E65)</f>
@@ -17190,22 +17445,26 @@
         <v>1</v>
       </c>
       <c r="M65" s="72" t="n">
+        <f aca="false">IF(AND(J65=1,K65=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N65" s="72" t="n">
         <v>59.5</v>
       </c>
-      <c r="N65" s="74" t="n">
+      <c r="O65" s="74" t="n">
         <v>199</v>
       </c>
-      <c r="O65" s="74" t="s">
+      <c r="P65" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P65" s="74" t="n">
+      <c r="Q65" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q65" s="72"/>
       <c r="R65" s="72"/>
       <c r="S65" s="72"/>
-    </row>
-    <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T65" s="72"/>
+    </row>
+    <row r="66" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="66" t="s">
         <v>121</v>
       </c>
@@ -17213,10 +17472,10 @@
         <v>42375</v>
       </c>
       <c r="C66" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D66" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E66" s="72" t="n">
         <f aca="false">IF(mmn!A66=MEG!A66,MEG!E66)</f>
@@ -17246,20 +17505,24 @@
         <v>0</v>
       </c>
       <c r="M66" s="72" t="n">
+        <f aca="false">IF(AND(J66=1,K66=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="72" t="n">
         <v>56</v>
       </c>
-      <c r="N66" s="74" t="n">
+      <c r="O66" s="74" t="n">
         <v>62</v>
       </c>
-      <c r="O66" s="74" t="s">
+      <c r="P66" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P66" s="74" t="n">
+      <c r="Q66" s="74" t="n">
         <v>38</v>
       </c>
-      <c r="Q66" s="72"/>
       <c r="R66" s="72"/>
       <c r="S66" s="72"/>
+      <c r="T66" s="72"/>
     </row>
     <row r="67" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="66" t="s">
@@ -17269,10 +17532,10 @@
         <v>42377</v>
       </c>
       <c r="C67" s="72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D67" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E67" s="72" t="n">
         <f aca="false">IF(mmn!A67=MEG!A67,MEG!E67)</f>
@@ -17302,22 +17565,26 @@
         <v>1</v>
       </c>
       <c r="M67" s="72" t="n">
+        <f aca="false">IF(AND(J67=1,K67=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N67" s="72" t="n">
         <v>57</v>
       </c>
-      <c r="N67" s="74" t="n">
+      <c r="O67" s="74" t="n">
         <v>69</v>
       </c>
-      <c r="O67" s="74" t="s">
+      <c r="P67" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P67" s="74" t="n">
+      <c r="Q67" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q67" s="72"/>
       <c r="R67" s="72"/>
       <c r="S67" s="72"/>
-    </row>
-    <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T67" s="72"/>
+    </row>
+    <row r="68" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="66" t="s">
         <v>203</v>
       </c>
@@ -17325,10 +17592,10 @@
         <v>42502</v>
       </c>
       <c r="C68" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D68" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E68" s="72" t="n">
         <f aca="false">IF(mmn!A68=MEG!A68,MEG!E68)</f>
@@ -17358,20 +17625,24 @@
         <v>1</v>
       </c>
       <c r="M68" s="72" t="n">
+        <f aca="false">IF(AND(J68=1,K68=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="72" t="n">
         <v>57</v>
       </c>
-      <c r="N68" s="74" t="n">
+      <c r="O68" s="74" t="n">
         <v>202</v>
       </c>
-      <c r="O68" s="74" t="s">
+      <c r="P68" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P68" s="74" t="n">
+      <c r="Q68" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q68" s="72"/>
       <c r="R68" s="72"/>
       <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
     </row>
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="66" t="s">
@@ -17381,10 +17652,10 @@
         <v>42376</v>
       </c>
       <c r="C69" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D69" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E69" s="72" t="n">
         <f aca="false">IF(mmn!A69=MEG!A69,MEG!E69)</f>
@@ -17414,22 +17685,26 @@
         <v>1</v>
       </c>
       <c r="M69" s="72" t="n">
+        <f aca="false">IF(AND(J69=1,K69=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N69" s="74" t="n">
+      <c r="O69" s="74" t="n">
         <v>59</v>
       </c>
-      <c r="O69" s="74" t="s">
+      <c r="P69" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P69" s="74" t="n">
+      <c r="Q69" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q69" s="72"/>
       <c r="R69" s="72"/>
       <c r="S69" s="72"/>
-    </row>
-    <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T69" s="72"/>
+    </row>
+    <row r="70" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="66" t="s">
         <v>205</v>
       </c>
@@ -17437,10 +17712,10 @@
         <v>42503</v>
       </c>
       <c r="C70" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D70" s="73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E70" s="72" t="n">
         <f aca="false">IF(mmn!A70=MEG!A70,MEG!E70)</f>
@@ -17470,20 +17745,24 @@
         <v>1</v>
       </c>
       <c r="M70" s="72" t="n">
+        <f aca="false">IF(AND(J70=1,K70=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N70" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N70" s="74" t="n">
+      <c r="O70" s="74" t="n">
         <v>179</v>
       </c>
-      <c r="O70" s="74" t="s">
+      <c r="P70" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P70" s="74" t="n">
+      <c r="Q70" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="Q70" s="72"/>
       <c r="R70" s="72"/>
       <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
     </row>
     <row r="71" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="66" t="s">
@@ -17493,10 +17772,10 @@
         <v>42384</v>
       </c>
       <c r="C71" s="72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D71" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E71" s="72" t="n">
         <f aca="false">IF(mmn!A71=MEG!A71,MEG!E71)</f>
@@ -17526,22 +17805,26 @@
         <v>1</v>
       </c>
       <c r="M71" s="72" t="n">
+        <f aca="false">IF(AND(J71=1,K71=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N71" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N71" s="74" t="n">
+      <c r="O71" s="74" t="n">
         <v>65</v>
       </c>
-      <c r="O71" s="74" t="s">
+      <c r="P71" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P71" s="74" t="n">
+      <c r="Q71" s="74" t="n">
         <v>38</v>
       </c>
-      <c r="Q71" s="72"/>
       <c r="R71" s="72"/>
       <c r="S71" s="72"/>
-    </row>
-    <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T71" s="72"/>
+    </row>
+    <row r="72" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="66" t="s">
         <v>207</v>
       </c>
@@ -17549,10 +17832,10 @@
         <v>42516</v>
       </c>
       <c r="C72" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D72" s="73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E72" s="72" t="n">
         <f aca="false">IF(mmn!A72=MEG!A72,MEG!E72)</f>
@@ -17582,22 +17865,26 @@
         <v>1</v>
       </c>
       <c r="M72" s="72" t="n">
+        <f aca="false">IF(AND(J72=1,K72=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N72" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N72" s="74" t="n">
+      <c r="O72" s="74" t="n">
         <v>197</v>
       </c>
-      <c r="O72" s="74" t="s">
+      <c r="P72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="74" t="n">
+      <c r="Q72" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q72" s="72"/>
       <c r="R72" s="72"/>
       <c r="S72" s="72"/>
-    </row>
-    <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T72" s="72"/>
+    </row>
+    <row r="73" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="66" t="s">
         <v>129</v>
       </c>
@@ -17605,10 +17892,10 @@
         <v>42397</v>
       </c>
       <c r="C73" s="72" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D73" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E73" s="72" t="n">
         <f aca="false">IF(mmn!A73=MEG!A73,MEG!E73)</f>
@@ -17638,24 +17925,28 @@
         <v>0</v>
       </c>
       <c r="M73" s="72" t="n">
+        <f aca="false">IF(AND(J73=1,K73=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="72" t="n">
         <v>61</v>
       </c>
-      <c r="N73" s="74" t="n">
+      <c r="O73" s="74" t="n">
         <v>64</v>
       </c>
-      <c r="O73" s="74" t="s">
+      <c r="P73" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P73" s="74" t="n">
+      <c r="Q73" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q73" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="R73" s="72"/>
+      <c r="R73" s="72" t="s">
+        <v>315</v>
+      </c>
       <c r="S73" s="72"/>
-    </row>
-    <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T73" s="72"/>
+    </row>
+    <row r="74" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="66" t="s">
         <v>208</v>
       </c>
@@ -17663,10 +17954,10 @@
         <v>42515</v>
       </c>
       <c r="C74" s="72" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D74" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E74" s="72" t="n">
         <f aca="false">IF(mmn!A74=MEG!A74,MEG!E74)</f>
@@ -17695,20 +17986,24 @@
         <v>0</v>
       </c>
       <c r="M74" s="72" t="n">
+        <f aca="false">IF(AND(J74=1,K74=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N74" s="72" t="n">
         <v>61</v>
       </c>
-      <c r="N74" s="74" t="n">
+      <c r="O74" s="74" t="n">
         <v>182</v>
       </c>
-      <c r="O74" s="74" t="s">
+      <c r="P74" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P74" s="74" t="n">
+      <c r="Q74" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q74" s="72"/>
       <c r="R74" s="72"/>
       <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="66" t="s">
@@ -17718,10 +18013,10 @@
         <v>42390</v>
       </c>
       <c r="C75" s="72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D75" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E75" s="72" t="n">
         <f aca="false">IF(mmn!A75=MEG!A75,MEG!E75)</f>
@@ -17750,20 +18045,23 @@
         <v>0</v>
       </c>
       <c r="M75" s="72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N75" s="72" t="n">
         <v>60.5</v>
       </c>
-      <c r="N75" s="74" t="n">
+      <c r="O75" s="74" t="n">
         <v>55</v>
       </c>
-      <c r="O75" s="74" t="s">
+      <c r="P75" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P75" s="74" t="n">
+      <c r="Q75" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q75" s="72"/>
       <c r="R75" s="72"/>
       <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
     </row>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="66" t="s">
@@ -17773,10 +18071,10 @@
         <v>42404</v>
       </c>
       <c r="C76" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D76" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E76" s="72" t="n">
         <f aca="false">IF(mmn!A76=MEG!A76,MEG!E76)</f>
@@ -17806,22 +18104,26 @@
         <v>1</v>
       </c>
       <c r="M76" s="72" t="n">
+        <f aca="false">IF(AND(J76=1,K76=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N76" s="72" t="n">
         <v>58</v>
       </c>
-      <c r="N76" s="74" t="n">
+      <c r="O76" s="74" t="n">
         <v>57</v>
       </c>
-      <c r="O76" s="74" t="s">
+      <c r="P76" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P76" s="74" t="n">
+      <c r="Q76" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q76" s="72"/>
       <c r="R76" s="72"/>
       <c r="S76" s="72"/>
-    </row>
-    <row r="77" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T76" s="72"/>
+    </row>
+    <row r="77" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="66" t="s">
         <v>210</v>
       </c>
@@ -17829,10 +18131,10 @@
         <v>42536</v>
       </c>
       <c r="C77" s="72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D77" s="73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E77" s="72" t="n">
         <f aca="false">IF(mmn!A77=MEG!A77,MEG!E77)</f>
@@ -17862,22 +18164,26 @@
         <v>1</v>
       </c>
       <c r="M77" s="72" t="n">
+        <f aca="false">IF(AND(J77=1,K77=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N77" s="72" t="n">
         <v>58</v>
       </c>
-      <c r="N77" s="74" t="n">
+      <c r="O77" s="74" t="n">
         <v>189</v>
       </c>
-      <c r="O77" s="74" t="s">
+      <c r="P77" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P77" s="74" t="n">
+      <c r="Q77" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q77" s="72"/>
       <c r="R77" s="72"/>
       <c r="S77" s="72"/>
-    </row>
-    <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T77" s="72"/>
+    </row>
+    <row r="78" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="66" t="s">
         <v>133</v>
       </c>
@@ -17885,10 +18191,10 @@
         <v>42426</v>
       </c>
       <c r="C78" s="72" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D78" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E78" s="72" t="n">
         <f aca="false">IF(mmn!A78=MEG!A78,MEG!E78)</f>
@@ -17918,22 +18224,26 @@
         <v>0</v>
       </c>
       <c r="M78" s="72" t="n">
+        <f aca="false">IF(AND(J78=1,K78=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="72" t="n">
         <v>56</v>
       </c>
-      <c r="N78" s="74" t="n">
+      <c r="O78" s="74" t="n">
         <v>59</v>
       </c>
-      <c r="O78" s="74" t="s">
+      <c r="P78" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P78" s="74" t="n">
+      <c r="Q78" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q78" s="72"/>
       <c r="R78" s="72"/>
       <c r="S78" s="72"/>
-    </row>
-    <row r="79" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T78" s="72"/>
+    </row>
+    <row r="79" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="66" t="s">
         <v>211</v>
       </c>
@@ -17941,10 +18251,10 @@
         <v>42562</v>
       </c>
       <c r="C79" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D79" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E79" s="72" t="n">
         <f aca="false">IF(mmn!A79=MEG!A79,MEG!E79)</f>
@@ -17973,22 +18283,26 @@
         <v>0</v>
       </c>
       <c r="M79" s="72" t="n">
+        <f aca="false">IF(AND(J79=1,K79=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N79" s="72" t="n">
         <v>56</v>
       </c>
-      <c r="N79" s="74" t="n">
+      <c r="O79" s="74" t="n">
         <v>197</v>
       </c>
-      <c r="O79" s="74" t="s">
+      <c r="P79" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P79" s="74" t="n">
+      <c r="Q79" s="74" t="n">
         <v>47</v>
       </c>
-      <c r="Q79" s="72"/>
       <c r="R79" s="72"/>
       <c r="S79" s="72"/>
-    </row>
-    <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T79" s="72"/>
+    </row>
+    <row r="80" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="66" t="s">
         <v>134</v>
       </c>
@@ -17996,10 +18310,10 @@
         <v>42464</v>
       </c>
       <c r="C80" s="72" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D80" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E80" s="72" t="n">
         <f aca="false">IF(mmn!A80=MEG!A80,MEG!E80)</f>
@@ -18029,22 +18343,26 @@
         <v>0</v>
       </c>
       <c r="M80" s="72" t="n">
+        <f aca="false">IF(AND(J80=1,K80=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N80" s="74" t="n">
+      <c r="O80" s="74" t="n">
         <v>68</v>
       </c>
-      <c r="O80" s="74" t="s">
+      <c r="P80" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P80" s="74" t="n">
+      <c r="Q80" s="74" t="n">
         <v>41.5</v>
       </c>
-      <c r="Q80" s="72"/>
       <c r="R80" s="72"/>
       <c r="S80" s="72"/>
-    </row>
-    <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T80" s="72"/>
+    </row>
+    <row r="81" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="66" t="s">
         <v>212</v>
       </c>
@@ -18052,10 +18370,10 @@
         <v>42583</v>
       </c>
       <c r="C81" s="72" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D81" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E81" s="72" t="n">
         <f aca="false">IF(mmn!A81=MEG!A81,MEG!E81)</f>
@@ -18085,22 +18403,26 @@
         <v>0</v>
       </c>
       <c r="M81" s="72" t="n">
+        <f aca="false">IF(AND(J81=1,K81=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="72" t="n">
         <v>66</v>
       </c>
-      <c r="N81" s="74" t="n">
+      <c r="O81" s="74" t="n">
         <v>187</v>
       </c>
-      <c r="O81" s="74" t="s">
+      <c r="P81" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P81" s="74" t="n">
+      <c r="Q81" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="Q81" s="72"/>
       <c r="R81" s="72"/>
       <c r="S81" s="72"/>
-    </row>
-    <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T81" s="72"/>
+    </row>
+    <row r="82" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="66" t="s">
         <v>136</v>
       </c>
@@ -18108,10 +18430,10 @@
         <v>42751</v>
       </c>
       <c r="C82" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D82" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E82" s="72" t="n">
         <f aca="false">IF(tone!B105=MEG!B105,MEG!E105)</f>
@@ -18141,22 +18463,26 @@
         <v>0</v>
       </c>
       <c r="M82" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" s="74" t="n">
+        <f aca="false">IF(AND(J82=1,K82=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="74" t="n">
         <v>53</v>
       </c>
-      <c r="O82" s="74" t="s">
+      <c r="P82" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P82" s="74" t="n">
+      <c r="Q82" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q82" s="72"/>
       <c r="R82" s="72"/>
       <c r="S82" s="72"/>
-    </row>
-    <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T82" s="72"/>
+    </row>
+    <row r="83" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="66" t="s">
         <v>214</v>
       </c>
@@ -18164,10 +18490,10 @@
         <v>42863</v>
       </c>
       <c r="C83" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D83" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E83" s="72" t="n">
         <f aca="false">IF(tone!B106=MEG!B106,MEG!E106)</f>
@@ -18197,22 +18523,26 @@
         <v>0</v>
       </c>
       <c r="M83" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" s="74" t="n">
+        <f aca="false">IF(AND(J83=1,K83=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="74" t="n">
         <v>188</v>
       </c>
-      <c r="O83" s="74" t="s">
+      <c r="P83" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P83" s="74" t="n">
+      <c r="Q83" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q83" s="72" t="s">
-        <v>322</v>
-      </c>
-      <c r="R83" s="72"/>
+      <c r="R83" s="72" t="s">
+        <v>323</v>
+      </c>
       <c r="S83" s="72"/>
+      <c r="T83" s="72"/>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="66" t="s">
@@ -18222,10 +18552,10 @@
         <v>42282</v>
       </c>
       <c r="C84" s="72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D84" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E84" s="72" t="n">
         <f aca="false">IF(mmn!A84=MEG!A84,MEG!E84)</f>
@@ -18254,22 +18584,26 @@
         <v>0</v>
       </c>
       <c r="M84" s="72" t="n">
+        <f aca="false">IF(AND(J84=1,K84=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N84" s="72" t="n">
         <v>58</v>
       </c>
-      <c r="N84" s="74" t="n">
+      <c r="O84" s="74" t="n">
         <v>53</v>
       </c>
-      <c r="O84" s="74" t="s">
+      <c r="P84" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P84" s="74" t="n">
+      <c r="Q84" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q84" s="72"/>
       <c r="R84" s="72"/>
       <c r="S84" s="72"/>
-    </row>
-    <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T84" s="72"/>
+    </row>
+    <row r="85" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="66" t="s">
         <v>215</v>
       </c>
@@ -18277,10 +18611,10 @@
         <v>42416</v>
       </c>
       <c r="C85" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D85" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E85" s="72" t="n">
         <f aca="false">IF(mmn!A85=MEG!A85,MEG!E85)</f>
@@ -18310,22 +18644,26 @@
         <v>0</v>
       </c>
       <c r="M85" s="72" t="n">
+        <f aca="false">IF(AND(J85=1,K85=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="72" t="n">
         <v>58</v>
       </c>
-      <c r="N85" s="74" t="n">
+      <c r="O85" s="74" t="n">
         <v>187</v>
       </c>
-      <c r="O85" s="74" t="s">
+      <c r="P85" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P85" s="74" t="n">
+      <c r="Q85" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q85" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="R85" s="72"/>
+      <c r="R85" s="72" t="s">
+        <v>286</v>
+      </c>
       <c r="S85" s="72"/>
+      <c r="T85" s="72"/>
     </row>
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="66" t="s">
@@ -18335,10 +18673,10 @@
         <v>42291</v>
       </c>
       <c r="C86" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D86" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E86" s="72" t="n">
         <f aca="false">IF(mmn!A86=MEG!A86,MEG!E86)</f>
@@ -18367,20 +18705,23 @@
         <v>0</v>
       </c>
       <c r="M86" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" s="74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N86" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="74" t="n">
         <v>54</v>
       </c>
-      <c r="O86" s="74" t="s">
+      <c r="P86" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P86" s="74" t="n">
+      <c r="Q86" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q86" s="72"/>
       <c r="R86" s="72"/>
       <c r="S86" s="72"/>
+      <c r="T86" s="72"/>
     </row>
     <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="66" t="s">
@@ -18390,10 +18731,10 @@
         <v>42327</v>
       </c>
       <c r="C87" s="72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D87" s="73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E87" s="72" t="n">
         <f aca="false">IF(mmn!A87=MEG!A87,MEG!E87)</f>
@@ -18422,22 +18763,26 @@
         <v>0</v>
       </c>
       <c r="M87" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" s="74" t="n">
+        <f aca="false">IF(AND(J87=1,K87=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N87" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="74" t="n">
         <v>55</v>
       </c>
-      <c r="O87" s="74" t="s">
+      <c r="P87" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P87" s="74" t="n">
+      <c r="Q87" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q87" s="72"/>
       <c r="R87" s="72"/>
       <c r="S87" s="72"/>
-    </row>
-    <row r="88" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T87" s="72"/>
+    </row>
+    <row r="88" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="66" t="s">
         <v>216</v>
       </c>
@@ -18445,10 +18790,10 @@
         <v>42443</v>
       </c>
       <c r="C88" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D88" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E88" s="72" t="n">
         <f aca="false">IF(mmn!A88=MEG!A88,MEG!E88)</f>
@@ -18478,24 +18823,28 @@
         <v>0</v>
       </c>
       <c r="M88" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" s="74" t="n">
+        <f aca="false">IF(AND(J88=1,K88=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" s="74" t="n">
         <v>187</v>
       </c>
-      <c r="O88" s="74" t="s">
+      <c r="P88" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P88" s="74" t="n">
+      <c r="Q88" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q88" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="R88" s="72"/>
+      <c r="R88" s="72" t="s">
+        <v>315</v>
+      </c>
       <c r="S88" s="72"/>
-    </row>
-    <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T88" s="72"/>
+    </row>
+    <row r="89" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="66" t="s">
         <v>139</v>
       </c>
@@ -18503,10 +18852,10 @@
         <v>42313</v>
       </c>
       <c r="C89" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D89" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E89" s="72" t="n">
         <f aca="false">IF(mmn!A89=MEG!A89,MEG!E89)</f>
@@ -18536,22 +18885,26 @@
         <v>0</v>
       </c>
       <c r="M89" s="72" t="n">
+        <f aca="false">IF(AND(J89=1,K89=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="72" t="n">
         <v>63</v>
       </c>
-      <c r="N89" s="74" t="n">
+      <c r="O89" s="74" t="n">
         <v>58</v>
       </c>
-      <c r="O89" s="74" t="s">
+      <c r="P89" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P89" s="74" t="n">
+      <c r="Q89" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q89" s="72"/>
       <c r="R89" s="72"/>
       <c r="S89" s="72"/>
-    </row>
-    <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T89" s="72"/>
+    </row>
+    <row r="90" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="66" t="s">
         <v>157</v>
       </c>
@@ -18559,10 +18912,10 @@
         <v>42359</v>
       </c>
       <c r="C90" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D90" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E90" s="72" t="n">
         <f aca="false">IF(mmn!A90=MEG!A90,MEG!E90)</f>
@@ -18592,22 +18945,26 @@
         <v>0</v>
       </c>
       <c r="M90" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" s="74" t="n">
+        <f aca="false">IF(AND(J90=1,K90=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="74" t="n">
         <v>60</v>
       </c>
-      <c r="O90" s="74" t="s">
+      <c r="P90" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P90" s="74" t="n">
+      <c r="Q90" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q90" s="72"/>
       <c r="R90" s="72"/>
       <c r="S90" s="72"/>
-    </row>
-    <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T90" s="72"/>
+    </row>
+    <row r="91" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="66" t="s">
         <v>158</v>
       </c>
@@ -18615,10 +18972,10 @@
         <v>42386</v>
       </c>
       <c r="C91" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D91" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E91" s="72" t="n">
         <f aca="false">IF(mmn!A91=MEG!A91,MEG!E91)</f>
@@ -18648,20 +19005,24 @@
         <v>0</v>
       </c>
       <c r="M91" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" s="74" t="n">
+        <f aca="false">IF(AND(J91=1,K91=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" s="74" t="n">
         <v>63</v>
       </c>
-      <c r="O91" s="74" t="s">
+      <c r="P91" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P91" s="74" t="n">
+      <c r="Q91" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q91" s="72"/>
       <c r="R91" s="72"/>
       <c r="S91" s="72"/>
+      <c r="T91" s="72"/>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="66" t="s">
@@ -18671,10 +19032,10 @@
         <v>42384</v>
       </c>
       <c r="C92" s="72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D92" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E92" s="72" t="n">
         <f aca="false">IF(mmn!A92=MEG!A92,MEG!E92)</f>
@@ -18704,22 +19065,26 @@
         <v>1</v>
       </c>
       <c r="M92" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" s="74" t="n">
+        <f aca="false">IF(AND(J92=1,K92=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N92" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="74" t="n">
         <v>59</v>
       </c>
-      <c r="O92" s="74" t="s">
+      <c r="P92" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P92" s="74" t="n">
+      <c r="Q92" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q92" s="72"/>
       <c r="R92" s="72"/>
       <c r="S92" s="72"/>
-    </row>
-    <row r="93" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T92" s="72"/>
+    </row>
+    <row r="93" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="66" t="s">
         <v>217</v>
       </c>
@@ -18727,10 +19092,10 @@
         <v>42513</v>
       </c>
       <c r="C93" s="72" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D93" s="73" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E93" s="72" t="n">
         <f aca="false">IF(mmn!A93=MEG!A93,MEG!E93)</f>
@@ -18760,20 +19125,24 @@
         <v>1</v>
       </c>
       <c r="M93" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" s="74" t="n">
+        <f aca="false">IF(AND(J93=1,K93=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N93" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" s="74" t="n">
         <v>188</v>
       </c>
-      <c r="O93" s="74" t="s">
+      <c r="P93" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P93" s="74" t="n">
+      <c r="Q93" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q93" s="72"/>
       <c r="R93" s="72"/>
       <c r="S93" s="72"/>
+      <c r="T93" s="72"/>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="66" t="s">
@@ -18783,10 +19152,10 @@
         <v>42381</v>
       </c>
       <c r="C94" s="72" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D94" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E94" s="72" t="n">
         <f aca="false">IF(mmn!A94=MEG!A94,MEG!E94)</f>
@@ -18816,22 +19185,25 @@
         <v>1</v>
       </c>
       <c r="M94" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" s="74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N94" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" s="74" t="n">
         <v>64</v>
       </c>
-      <c r="O94" s="74" t="s">
+      <c r="P94" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P94" s="74" t="n">
+      <c r="Q94" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="Q94" s="72"/>
       <c r="R94" s="72"/>
       <c r="S94" s="72"/>
-    </row>
-    <row r="95" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T94" s="72"/>
+    </row>
+    <row r="95" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="66" t="s">
         <v>218</v>
       </c>
@@ -18839,10 +19211,10 @@
         <v>42503</v>
       </c>
       <c r="C95" s="72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D95" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E95" s="72" t="n">
         <f aca="false">IF(mmn!A95=MEG!A95,MEG!E95)</f>
@@ -18872,20 +19244,24 @@
         <v>1</v>
       </c>
       <c r="M95" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" s="74" t="n">
+        <f aca="false">IF(AND(J95=1,K95=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N95" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" s="74" t="n">
         <v>186</v>
       </c>
-      <c r="O95" s="74" t="s">
+      <c r="P95" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P95" s="74" t="n">
+      <c r="Q95" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q95" s="72"/>
       <c r="R95" s="72"/>
       <c r="S95" s="72"/>
+      <c r="T95" s="72"/>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="66" t="s">
@@ -18895,10 +19271,10 @@
         <v>42395</v>
       </c>
       <c r="C96" s="72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D96" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E96" s="72" t="n">
         <f aca="false">IF(mmn!A96=MEG!A96,MEG!E96)</f>
@@ -18928,22 +19304,26 @@
         <v>1</v>
       </c>
       <c r="M96" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" s="74" t="n">
+        <f aca="false">IF(AND(J96=1,K96=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N96" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" s="74" t="n">
         <v>64</v>
       </c>
-      <c r="O96" s="74" t="s">
+      <c r="P96" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P96" s="74" t="n">
+      <c r="Q96" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q96" s="72"/>
       <c r="R96" s="72"/>
       <c r="S96" s="72"/>
-    </row>
-    <row r="97" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T96" s="72"/>
+    </row>
+    <row r="97" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="66" t="s">
         <v>219</v>
       </c>
@@ -18951,10 +19331,10 @@
         <v>42522</v>
       </c>
       <c r="C97" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E97" s="72" t="n">
         <f aca="false">IF(mmn!A97=MEG!A97,MEG!E97)</f>
@@ -18984,20 +19364,24 @@
         <v>1</v>
       </c>
       <c r="M97" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" s="74" t="n">
+        <f aca="false">IF(AND(J97=1,K97=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N97" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" s="74" t="n">
         <v>191</v>
       </c>
-      <c r="O97" s="74" t="s">
+      <c r="P97" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P97" s="74" t="n">
+      <c r="Q97" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="Q97" s="72"/>
       <c r="R97" s="72"/>
       <c r="S97" s="72"/>
+      <c r="T97" s="72"/>
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="66" t="s">
@@ -19007,10 +19391,10 @@
         <v>42401</v>
       </c>
       <c r="C98" s="72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D98" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E98" s="72" t="n">
         <f aca="false">IF(mmn!A98=MEG!A98,MEG!E98)</f>
@@ -19040,22 +19424,26 @@
         <v>1</v>
       </c>
       <c r="M98" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" s="74" t="n">
+        <f aca="false">IF(AND(J98=1,K98=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N98" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" s="74" t="n">
         <v>54</v>
       </c>
-      <c r="O98" s="74" t="s">
+      <c r="P98" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P98" s="74" t="n">
+      <c r="Q98" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q98" s="72"/>
       <c r="R98" s="72"/>
       <c r="S98" s="72"/>
-    </row>
-    <row r="99" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T98" s="72"/>
+    </row>
+    <row r="99" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="66" t="s">
         <v>220</v>
       </c>
@@ -19063,10 +19451,10 @@
         <v>42535</v>
       </c>
       <c r="C99" s="72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D99" s="73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E99" s="72" t="n">
         <f aca="false">IF(mmn!A99=MEG!A99,MEG!E99)</f>
@@ -19096,20 +19484,24 @@
         <v>1</v>
       </c>
       <c r="M99" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" s="74" t="n">
+        <f aca="false">IF(AND(J99=1,K99=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N99" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" s="74" t="n">
         <v>188</v>
       </c>
-      <c r="O99" s="74" t="s">
+      <c r="P99" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P99" s="74" t="n">
+      <c r="Q99" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="Q99" s="72"/>
       <c r="R99" s="72"/>
       <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
     </row>
     <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="66" t="s">
@@ -19119,10 +19511,10 @@
         <v>42411</v>
       </c>
       <c r="C100" s="72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D100" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E100" s="72" t="n">
         <f aca="false">IF(mmn!A100=MEG!A100,MEG!E100)</f>
@@ -19151,22 +19543,26 @@
         <v>0</v>
       </c>
       <c r="M100" s="72" t="n">
+        <f aca="false">IF(AND(J100=1,K100=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N100" s="72" t="n">
         <v>60.5</v>
       </c>
-      <c r="N100" s="74" t="n">
+      <c r="O100" s="74" t="n">
         <v>56</v>
       </c>
-      <c r="O100" s="74" t="s">
+      <c r="P100" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P100" s="74" t="n">
+      <c r="Q100" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q100" s="72"/>
       <c r="R100" s="72"/>
       <c r="S100" s="72"/>
-    </row>
-    <row r="101" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T100" s="72"/>
+    </row>
+    <row r="101" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="66" t="s">
         <v>221</v>
       </c>
@@ -19174,10 +19570,10 @@
         <v>42559</v>
       </c>
       <c r="C101" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E101" s="72" t="n">
         <f aca="false">IF(mmn!A101=MEG!A101,MEG!E101)</f>
@@ -19207,24 +19603,28 @@
         <v>0</v>
       </c>
       <c r="M101" s="72" t="n">
+        <f aca="false">IF(AND(J101=1,K101=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="72" t="n">
         <v>60.5</v>
       </c>
-      <c r="N101" s="74" t="n">
+      <c r="O101" s="74" t="n">
         <v>204</v>
       </c>
-      <c r="O101" s="74" t="s">
+      <c r="P101" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P101" s="74" t="n">
+      <c r="Q101" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="Q101" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="R101" s="72"/>
+      <c r="R101" s="72" t="s">
+        <v>315</v>
+      </c>
       <c r="S101" s="72"/>
-    </row>
-    <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T101" s="72"/>
+    </row>
+    <row r="102" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="66" t="s">
         <v>163</v>
       </c>
@@ -19232,10 +19632,10 @@
         <v>42417</v>
       </c>
       <c r="C102" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E102" s="72" t="n">
         <f aca="false">IF(mmn!A102=MEG!A102,MEG!E102)</f>
@@ -19265,24 +19665,28 @@
         <v>0</v>
       </c>
       <c r="M102" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" s="74" t="n">
+        <f aca="false">IF(AND(J102=1,K102=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" s="74" t="n">
         <v>53</v>
       </c>
-      <c r="O102" s="74" t="s">
+      <c r="P102" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P102" s="74" t="n">
+      <c r="Q102" s="74" t="n">
         <v>38</v>
       </c>
-      <c r="Q102" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="R102" s="72"/>
+      <c r="R102" s="72" t="s">
+        <v>332</v>
+      </c>
       <c r="S102" s="72"/>
-    </row>
-    <row r="103" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T102" s="72"/>
+    </row>
+    <row r="103" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="66" t="s">
         <v>223</v>
       </c>
@@ -19290,10 +19694,10 @@
         <v>42552</v>
       </c>
       <c r="C103" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D103" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E103" s="72" t="n">
         <f aca="false">IF(mmn!A103=MEG!A103,MEG!E103)</f>
@@ -19322,22 +19726,26 @@
         <v>0</v>
       </c>
       <c r="M103" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="74" t="n">
+        <f aca="false">IF(AND(J103=1,K103=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N103" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="74" t="n">
         <v>188</v>
       </c>
-      <c r="O103" s="74" t="s">
+      <c r="P103" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P103" s="74" t="n">
+      <c r="Q103" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="Q103" s="72"/>
       <c r="R103" s="72"/>
       <c r="S103" s="72"/>
-    </row>
-    <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T103" s="72"/>
+    </row>
+    <row r="104" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="66" t="s">
         <v>88</v>
       </c>
@@ -19345,10 +19753,10 @@
         <v>42459</v>
       </c>
       <c r="C104" s="72" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D104" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E104" s="72" t="n">
         <f aca="false">IF(mmn!A104=MEG!A104,MEG!E104)</f>
@@ -19378,22 +19786,26 @@
         <v>0</v>
       </c>
       <c r="M104" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" s="74" t="n">
+        <f aca="false">IF(AND(J104=1,K104=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" s="74" t="n">
         <v>63</v>
       </c>
-      <c r="O104" s="74" t="s">
+      <c r="P104" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P104" s="74" t="n">
+      <c r="Q104" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q104" s="72"/>
       <c r="R104" s="72"/>
       <c r="S104" s="72"/>
-    </row>
-    <row r="105" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T104" s="72"/>
+    </row>
+    <row r="105" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="66" t="s">
         <v>164</v>
       </c>
@@ -19401,10 +19813,10 @@
         <v>42465</v>
       </c>
       <c r="C105" s="72" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D105" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E105" s="72" t="n">
         <f aca="false">IF(mmn!A105=MEG!A105,MEG!E105)</f>
@@ -19434,22 +19846,26 @@
         <v>0</v>
       </c>
       <c r="M105" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" s="74" t="n">
+        <f aca="false">IF(AND(J105=1,K105=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" s="74" t="n">
         <v>70</v>
       </c>
-      <c r="O105" s="74" t="s">
+      <c r="P105" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P105" s="74" t="n">
+      <c r="Q105" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="Q105" s="72"/>
       <c r="R105" s="72"/>
       <c r="S105" s="72"/>
-    </row>
-    <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T105" s="72"/>
+    </row>
+    <row r="106" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="66" t="s">
         <v>224</v>
       </c>
@@ -19457,10 +19873,10 @@
         <v>42587</v>
       </c>
       <c r="C106" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D106" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E106" s="72" t="n">
         <f aca="false">IF(mmn!A106=MEG!A106,MEG!E106)</f>
@@ -19490,22 +19906,26 @@
         <v>0</v>
       </c>
       <c r="M106" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" s="74" t="n">
+        <f aca="false">IF(AND(J106=1,K106=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" s="74" t="n">
         <v>192</v>
       </c>
-      <c r="O106" s="74" t="s">
+      <c r="P106" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P106" s="74" t="n">
+      <c r="Q106" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q106" s="72"/>
       <c r="R106" s="72"/>
       <c r="S106" s="72"/>
-    </row>
-    <row r="107" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T106" s="72"/>
+    </row>
+    <row r="107" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="66" t="s">
         <v>165</v>
       </c>
@@ -19513,10 +19933,10 @@
         <v>42466</v>
       </c>
       <c r="C107" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D107" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E107" s="72" t="n">
         <f aca="false">IF(mmn!A107=MEG!A107,MEG!E107)</f>
@@ -19546,22 +19966,26 @@
         <v>0</v>
       </c>
       <c r="M107" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" s="74" t="n">
+        <f aca="false">IF(AND(J107=1,K107=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="74" t="n">
         <v>65</v>
       </c>
-      <c r="O107" s="74" t="s">
+      <c r="P107" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P107" s="74" t="n">
+      <c r="Q107" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q107" s="72"/>
       <c r="R107" s="72"/>
       <c r="S107" s="72"/>
-    </row>
-    <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T107" s="72"/>
+    </row>
+    <row r="108" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="66" t="s">
         <v>226</v>
       </c>
@@ -19569,10 +19993,10 @@
         <v>42594</v>
       </c>
       <c r="C108" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D108" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E108" s="72" t="n">
         <f aca="false">IF(mmn!A108=MEG!A108,MEG!E108)</f>
@@ -19602,22 +20026,26 @@
         <v>0</v>
       </c>
       <c r="M108" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" s="74" t="n">
+        <f aca="false">IF(AND(J108=1,K108=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="74" t="n">
         <v>193</v>
       </c>
-      <c r="O108" s="74" t="s">
+      <c r="P108" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P108" s="74" t="n">
+      <c r="Q108" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q108" s="72"/>
       <c r="R108" s="72"/>
       <c r="S108" s="72"/>
-    </row>
-    <row r="109" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T108" s="72"/>
+    </row>
+    <row r="109" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="66" t="s">
         <v>166</v>
       </c>
@@ -19625,10 +20053,10 @@
         <v>42472</v>
       </c>
       <c r="C109" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D109" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E109" s="72" t="n">
         <f aca="false">IF(mmn!A109=MEG!A109,MEG!E109)</f>
@@ -19658,22 +20086,26 @@
         <v>0</v>
       </c>
       <c r="M109" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" s="74" t="n">
+        <f aca="false">IF(AND(J109=1,K109=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="74" t="n">
         <v>55</v>
       </c>
-      <c r="O109" s="74" t="s">
+      <c r="P109" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P109" s="74" t="n">
+      <c r="Q109" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q109" s="72"/>
       <c r="R109" s="72"/>
       <c r="S109" s="72"/>
-    </row>
-    <row r="110" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T109" s="72"/>
+    </row>
+    <row r="110" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="66" t="s">
         <v>227</v>
       </c>
@@ -19681,10 +20113,10 @@
         <v>42606</v>
       </c>
       <c r="C110" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D110" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E110" s="72" t="n">
         <f aca="false">IF(mmn!A110=MEG!A110,MEG!E110)</f>
@@ -19714,24 +20146,28 @@
         <v>0</v>
       </c>
       <c r="M110" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" s="74" t="n">
+        <f aca="false">IF(AND(J110=1,K110=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="74" t="n">
         <v>189</v>
       </c>
-      <c r="O110" s="74" t="s">
+      <c r="P110" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P110" s="74" t="n">
+      <c r="Q110" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="Q110" s="72" t="s">
-        <v>334</v>
-      </c>
-      <c r="R110" s="72"/>
+      <c r="R110" s="72" t="s">
+        <v>335</v>
+      </c>
       <c r="S110" s="72"/>
-    </row>
-    <row r="111" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T110" s="72"/>
+    </row>
+    <row r="111" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="66" t="s">
         <v>266</v>
       </c>
@@ -19739,10 +20175,10 @@
         <v>42235</v>
       </c>
       <c r="C111" s="72" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E111" s="72" t="n">
         <f aca="false">IF(mmn!A111=MEG!A111,MEG!E111)</f>
@@ -19772,22 +20208,26 @@
         <v>0</v>
       </c>
       <c r="M111" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" s="74" t="s">
-        <v>335</v>
-      </c>
-      <c r="P111" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="72" t="s">
+        <f aca="false">IF(AND(J111=1,K111=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="R111" s="72"/>
+      <c r="Q111" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" s="72" t="s">
+        <v>337</v>
+      </c>
       <c r="S111" s="72"/>
+      <c r="T111" s="72"/>
     </row>
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="66" t="s">
@@ -19797,10 +20237,10 @@
         <v>42234</v>
       </c>
       <c r="C112" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D112" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E112" s="72" t="n">
         <f aca="false">IF(mmn!A112=MEG!A112,MEG!E112)</f>
@@ -19830,22 +20270,26 @@
         <v>1</v>
       </c>
       <c r="M112" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" s="74" t="n">
+        <f aca="false">IF(AND(J112=1,K112=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N112" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="74" t="n">
         <v>54</v>
       </c>
-      <c r="O112" s="74" t="s">
+      <c r="P112" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P112" s="74" t="n">
+      <c r="Q112" s="74" t="n">
         <v>38</v>
       </c>
-      <c r="Q112" s="72"/>
       <c r="R112" s="72"/>
       <c r="S112" s="72"/>
-    </row>
-    <row r="113" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T112" s="72"/>
+    </row>
+    <row r="113" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="66" t="s">
         <v>228</v>
       </c>
@@ -19853,10 +20297,10 @@
         <v>42373</v>
       </c>
       <c r="C113" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D113" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E113" s="72" t="n">
         <f aca="false">IF(mmn!A113=MEG!A113,MEG!E113)</f>
@@ -19886,22 +20330,26 @@
         <v>1</v>
       </c>
       <c r="M113" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" s="74" t="n">
+        <f aca="false">IF(AND(J113=1,K113=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N113" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="74" t="n">
         <v>193</v>
       </c>
-      <c r="O113" s="74" t="s">
+      <c r="P113" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P113" s="74" t="n">
+      <c r="Q113" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="Q113" s="72"/>
       <c r="R113" s="72"/>
       <c r="S113" s="72"/>
-    </row>
-    <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T113" s="72"/>
+    </row>
+    <row r="114" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="66" t="s">
         <v>168</v>
       </c>
@@ -19909,10 +20357,10 @@
         <v>42237</v>
       </c>
       <c r="C114" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D114" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E114" s="72" t="n">
         <f aca="false">IF(mmn!A114=MEG!A114,MEG!E114)</f>
@@ -19942,24 +20390,28 @@
         <v>0</v>
       </c>
       <c r="M114" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" s="74" t="n">
+        <f aca="false">IF(AND(J114=1,K114=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" s="74" t="n">
         <v>59</v>
       </c>
-      <c r="O114" s="74" t="s">
+      <c r="P114" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P114" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="R114" s="72"/>
+      <c r="Q114" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" s="72" t="s">
+        <v>315</v>
+      </c>
       <c r="S114" s="72"/>
-    </row>
-    <row r="115" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T114" s="72"/>
+    </row>
+    <row r="115" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="66" t="s">
         <v>229</v>
       </c>
@@ -19967,10 +20419,10 @@
         <v>42367</v>
       </c>
       <c r="C115" s="72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D115" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E115" s="72" t="n">
         <f aca="false">IF(mmn!A115=MEG!A115,MEG!E115)</f>
@@ -19999,20 +20451,24 @@
         <v>0</v>
       </c>
       <c r="M115" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" s="74" t="n">
+        <f aca="false">IF(AND(J115=1,K115=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N115" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" s="74" t="n">
         <v>186</v>
       </c>
-      <c r="O115" s="74" t="s">
+      <c r="P115" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="P115" s="74" t="n">
+      <c r="Q115" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q115" s="72"/>
       <c r="R115" s="72"/>
       <c r="S115" s="72"/>
+      <c r="T115" s="72"/>
     </row>
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="66" t="s">
@@ -20022,10 +20478,10 @@
         <v>42250</v>
       </c>
       <c r="C116" s="72" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D116" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E116" s="72" t="n">
         <f aca="false">IF(mmn!A116=MEG!A116,MEG!E116)</f>
@@ -20055,22 +20511,26 @@
         <v>1</v>
       </c>
       <c r="M116" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" s="74" t="n">
+        <f aca="false">IF(AND(J116=1,K116=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N116" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="74" t="n">
         <v>62</v>
       </c>
-      <c r="O116" s="74" t="s">
+      <c r="P116" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P116" s="74" t="n">
+      <c r="Q116" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="Q116" s="72"/>
       <c r="R116" s="72"/>
       <c r="S116" s="72"/>
-    </row>
-    <row r="117" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T116" s="72"/>
+    </row>
+    <row r="117" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="66" t="s">
         <v>230</v>
       </c>
@@ -20078,10 +20538,10 @@
         <v>42373</v>
       </c>
       <c r="C117" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D117" s="73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E117" s="72" t="n">
         <f aca="false">IF(mmn!A117=MEG!A117,MEG!E117)</f>
@@ -20111,23 +20571,89 @@
         <v>1</v>
       </c>
       <c r="M117" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" s="74" t="n">
+        <f aca="false">IF(AND(J117=1,K117=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N117" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" s="74" t="n">
         <v>185</v>
       </c>
-      <c r="O117" s="74" t="s">
+      <c r="P117" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P117" s="74" t="n">
+      <c r="Q117" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="Q117" s="72"/>
       <c r="R117" s="72"/>
       <c r="S117" s="72"/>
+      <c r="T117" s="72"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q117"/>
+  <autoFilter ref="A1:R117">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="116a"/>
+        <filter val="117a"/>
+        <filter val="119a"/>
+        <filter val="120a"/>
+        <filter val="122a"/>
+        <filter val="123a"/>
+        <filter val="124a"/>
+        <filter val="125a"/>
+        <filter val="126a"/>
+        <filter val="127a"/>
+        <filter val="128a"/>
+        <filter val="129a"/>
+        <filter val="130a"/>
+        <filter val="131a"/>
+        <filter val="132a"/>
+        <filter val="133a"/>
+        <filter val="134a"/>
+        <filter val="208a"/>
+        <filter val="209a"/>
+        <filter val="211a"/>
+        <filter val="215a"/>
+        <filter val="218a"/>
+        <filter val="220a"/>
+        <filter val="222a"/>
+        <filter val="223a"/>
+        <filter val="224a"/>
+        <filter val="225a"/>
+        <filter val="226a"/>
+        <filter val="228a"/>
+        <filter val="229a"/>
+        <filter val="231a"/>
+        <filter val="232a"/>
+        <filter val="233a"/>
+        <filter val="301a"/>
+        <filter val="302a"/>
+        <filter val="304a"/>
+        <filter val="305a"/>
+        <filter val="306a"/>
+        <filter val="307a"/>
+        <filter val="309a"/>
+        <filter val="310a"/>
+        <filter val="311a"/>
+        <filter val="312a"/>
+        <filter val="314a"/>
+        <filter val="316a"/>
+        <filter val="317a"/>
+        <filter val="318a"/>
+        <filter val="319a"/>
+        <filter val="320a"/>
+        <filter val="921a"/>
+        <filter val="923a"/>
+        <filter val="925a"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <customFilters and="true">
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -20154,7 +20680,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="41.49"/>
@@ -20192,10 +20718,10 @@
         <v>272</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="59"/>
@@ -20575,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K8" s="78"/>
       <c r="L8" s="59"/>
@@ -21876,7 +22402,7 @@
       <c r="K32" s="80"/>
       <c r="L32" s="59"/>
       <c r="M32" s="60" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
@@ -24231,7 +24757,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="77" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K76" s="84"/>
       <c r="L76" s="59"/>
@@ -25617,7 +26143,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="77" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K102" s="78"/>
       <c r="L102" s="59"/>
@@ -26375,7 +26901,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K116" s="78"/>
       <c r="L116" s="59"/>
@@ -26479,7 +27005,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.17"/>
@@ -26509,7 +27035,7 @@
         <v>270</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1" s="59"/>
       <c r="I1" s="59"/>
@@ -26788,7 +27314,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
@@ -28114,7 +28640,7 @@
         <v>1800</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F36" s="18" t="n">
         <v>1</v>
@@ -28942,7 +29468,7 @@
         <v>1800</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F54" s="18" t="n">
         <v>1</v>
@@ -31876,7 +32402,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="85" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="85" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="85" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="85" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="85" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="85" width="15"/>
   </cols>
   <sheetData>
@@ -32920,7 +33446,7 @@
         <v>59</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F52" s="85" t="n">
         <v>2</v>
